--- a/training_features/2024-11-14_11-39-15/scores_llama3.1_8b_0-shot_500_kfold.xlsx
+++ b/training_features/2024-11-14_11-39-15/scores_llama3.1_8b_0-shot_500_kfold.xlsx
@@ -623,100 +623,100 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.006</v>
+        <v>0.005</v>
       </c>
       <c r="E2" t="n">
-        <v>0.065</v>
+        <v>0.053</v>
       </c>
       <c r="F2" t="n">
-        <v>0.078</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.422</v>
+        <v>-0.137</v>
       </c>
       <c r="H2" t="n">
-        <v>0.068</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="I2" t="n">
+        <v>0.057</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.261</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-0.08400000000000001</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.363</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.393</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.602</v>
+      </c>
+      <c r="O2" t="n">
+        <v>-83.68300000000001</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.08599999999999999</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.292</v>
+      </c>
+      <c r="S2" t="n">
+        <v>-1.123</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.114</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0.262</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>-0.271</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0.052</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0.06900000000000001</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>-0.116</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0.06900000000000001</v>
+      </c>
+      <c r="AG2" t="n">
         <v>0.059</v>
       </c>
-      <c r="J2" t="n">
-        <v>0.259</v>
-      </c>
-      <c r="K2" t="n">
-        <v>-0.221</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.008</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.075</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0.091</v>
-      </c>
-      <c r="O2" t="n">
-        <v>-0.944</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0.103</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0.07099999999999999</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0.316</v>
-      </c>
-      <c r="S2" t="n">
-        <v>-2.844</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0.032</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0.038</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0.663</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0.075</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0.064</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>0.274</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>-0.399</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>0.004</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>0.056</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>0.067</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>-0.034</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>0.07099999999999999</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>0.061</v>
-      </c>
       <c r="AH2" t="n">
-        <v>0.265</v>
+        <v>0.261</v>
       </c>
       <c r="AI2" t="n">
-        <v>-0.152</v>
+        <v>-0.05</v>
       </c>
       <c r="AJ2" t="n">
         <v>3</v>
@@ -735,100 +735,100 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01</v>
+        <v>0.006</v>
       </c>
       <c r="E3" t="n">
-        <v>0.08799999999999999</v>
+        <v>0.06</v>
       </c>
       <c r="F3" t="n">
-        <v>0.099</v>
+        <v>0.076</v>
       </c>
       <c r="G3" t="n">
-        <v>0.295</v>
+        <v>0.614</v>
       </c>
       <c r="H3" t="n">
-        <v>0.09</v>
+        <v>0.062</v>
       </c>
       <c r="I3" t="n">
+        <v>0.051</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.244</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.775</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.097</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.121</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.028</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.241</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.121</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.427</v>
+      </c>
+      <c r="S3" t="n">
+        <v>-3.539</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.836</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.096</v>
+      </c>
+      <c r="Y3" t="n">
         <v>0.06900000000000001</v>
       </c>
-      <c r="J3" t="n">
-        <v>0.299</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.629</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.012</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.105</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0.107</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0.172</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0.136</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0.5570000000000001</v>
-      </c>
-      <c r="S3" t="n">
-        <v>-6.313</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0.031</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0.125</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0.177</v>
-      </c>
-      <c r="W3" t="n">
-        <v>-1.242</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0.079</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0.047</v>
-      </c>
       <c r="Z3" t="n">
-        <v>0.28</v>
+        <v>0.303</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.6919999999999999</v>
+        <v>0.068</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.01</v>
+        <v>0.007</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.09</v>
+        <v>0.066</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.098</v>
+        <v>0.083</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.305</v>
+        <v>0.548</v>
       </c>
       <c r="AF3" t="n">
         <v>0.151</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.126</v>
+        <v>0.128</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.389</v>
+        <v>0.387</v>
       </c>
       <c r="AI3" t="n">
-        <v>-0.061</v>
+        <v>-0.302</v>
       </c>
       <c r="AJ3" t="n">
         <v>3</v>
@@ -847,100 +847,100 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.011</v>
+        <v>0.003</v>
       </c>
       <c r="E4" t="n">
-        <v>0.091</v>
+        <v>0.045</v>
       </c>
       <c r="F4" t="n">
-        <v>0.103</v>
+        <v>0.054</v>
       </c>
       <c r="G4" t="n">
-        <v>-2.025</v>
+        <v>0.345</v>
       </c>
       <c r="H4" t="n">
-        <v>0.074</v>
+        <v>0.068</v>
       </c>
       <c r="I4" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="K4" t="n">
+        <v>-0.08</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.119</v>
+      </c>
+      <c r="O4" t="n">
+        <v>-2.137</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.07099999999999999</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.058</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.264</v>
+      </c>
+      <c r="S4" t="n">
+        <v>-0.238</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.051</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.156</v>
+      </c>
+      <c r="X4" t="n">
         <v>0.061</v>
       </c>
-      <c r="J4" t="n">
-        <v>0.272</v>
-      </c>
-      <c r="K4" t="n">
-        <v>-0.213</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.013</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.104</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0.115</v>
-      </c>
-      <c r="O4" t="n">
-        <v>-2.768</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0.08400000000000001</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0.289</v>
-      </c>
-      <c r="S4" t="n">
-        <v>-0.5570000000000001</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0.008999999999999999</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0.093</v>
-      </c>
-      <c r="W4" t="n">
-        <v>-1.443</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0.063</v>
-      </c>
       <c r="Y4" t="n">
-        <v>0.05</v>
+        <v>0.049</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.251</v>
+        <v>0.246</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.103</v>
+        <v>0.171</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.011</v>
+        <v>0.003</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.091</v>
+        <v>0.044</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.103</v>
+        <v>0.055</v>
       </c>
       <c r="AE4" t="n">
-        <v>-2.007</v>
+        <v>0.337</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.077</v>
+        <v>0.073</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.062</v>
+        <v>0.058</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.277</v>
+        <v>0.269</v>
       </c>
       <c r="AI4" t="n">
-        <v>-0.315</v>
+        <v>-0.083</v>
       </c>
       <c r="AJ4" t="n">
         <v>4</v>
@@ -959,100 +959,100 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.032</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.924</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.199</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.895</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.598</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.146</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.073</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.349</v>
+      </c>
+      <c r="S5" t="n">
+        <v>-0.823</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0.102</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.127</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0.749</v>
+      </c>
+      <c r="AB5" t="n">
         <v>0.004</v>
       </c>
-      <c r="E5" t="n">
-        <v>0.054</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.067</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.667</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.048</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.038</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.219</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.888</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.053</v>
-      </c>
-      <c r="M5" t="n">
+      <c r="AC5" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>0.881</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>0.151</v>
+      </c>
+      <c r="AG5" t="n">
         <v>0.121</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="O5" t="n">
-        <v>-2.961</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0.226</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0.083</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0.433</v>
-      </c>
-      <c r="S5" t="n">
-        <v>-1.978</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0.056</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0.073</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0.603</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0.076</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0.054</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>0.275</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>0.6830000000000001</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>0.057</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>0.07099999999999999</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>0.626</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>0.116</v>
       </c>
       <c r="AH5" t="n">
         <v>0.386</v>
       </c>
       <c r="AI5" t="n">
-        <v>-0.047</v>
+        <v>-0.231</v>
       </c>
       <c r="AJ5" t="n">
         <v>4</v>
@@ -1071,100 +1071,100 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.003</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="E6" t="n">
-        <v>0.046</v>
+        <v>0.073</v>
       </c>
       <c r="F6" t="n">
-        <v>0.055</v>
+        <v>0.094</v>
       </c>
       <c r="G6" t="n">
-        <v>0.104</v>
+        <v>-0.322</v>
       </c>
       <c r="H6" t="n">
-        <v>0.056</v>
+        <v>0.062</v>
       </c>
       <c r="I6" t="n">
-        <v>0.047</v>
+        <v>0.052</v>
       </c>
       <c r="J6" t="n">
-        <v>0.236</v>
+        <v>0.249</v>
       </c>
       <c r="K6" t="n">
-        <v>0.35</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="L6" t="n">
-        <v>0.003</v>
+        <v>0.01</v>
       </c>
       <c r="M6" t="n">
-        <v>0.046</v>
+        <v>0.075</v>
       </c>
       <c r="N6" t="n">
-        <v>0.052</v>
+        <v>0.099</v>
       </c>
       <c r="O6" t="n">
-        <v>0.199</v>
+        <v>-0.453</v>
       </c>
       <c r="P6" t="n">
-        <v>0.062</v>
+        <v>0.063</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.051</v>
+        <v>0.053</v>
       </c>
       <c r="R6" t="n">
-        <v>0.248</v>
+        <v>0.25</v>
       </c>
       <c r="S6" t="n">
-        <v>0.19</v>
+        <v>-0.013</v>
       </c>
       <c r="T6" t="n">
         <v>0.005</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05</v>
+        <v>0.061</v>
       </c>
       <c r="V6" t="n">
+        <v>0.07099999999999999</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.247</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.068</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0.053</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>-0.261</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="AC6" t="n">
         <v>0.07000000000000001</v>
       </c>
-      <c r="W6" t="n">
-        <v>-0.447</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0.067</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>0.057</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>0.259</v>
-      </c>
-      <c r="AA6" t="n">
+      <c r="AD6" t="n">
+        <v>0.08799999999999999</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>-0.152</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0.07099999999999999</v>
+      </c>
+      <c r="AG6" t="n">
         <v>0.058</v>
       </c>
-      <c r="AB6" t="n">
-        <v>0.003</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>0.044</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>0.054</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>0.133</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>0.056</v>
-      </c>
       <c r="AH6" t="n">
-        <v>0.264</v>
+        <v>0.266</v>
       </c>
       <c r="AI6" t="n">
-        <v>-0.004</v>
+        <v>-0.252</v>
       </c>
       <c r="AJ6" t="n">
         <v>5</v>
@@ -1183,100 +1183,100 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.054</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.873</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.041</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.033</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.201</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.912</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.097</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.127</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.294</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.286</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.112</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.477</v>
+      </c>
+      <c r="S7" t="n">
+        <v>-5.372</v>
+      </c>
+      <c r="T7" t="n">
         <v>0.002</v>
       </c>
-      <c r="E7" t="n">
-        <v>0.038</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.048</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.905</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.043</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.034</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.207</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.913</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.07199999999999999</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0.101</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0.579</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0.057</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0.041</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0.236</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0.806</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0.008</v>
-      </c>
       <c r="U7" t="n">
-        <v>0.048</v>
+        <v>0.036</v>
       </c>
       <c r="V7" t="n">
-        <v>0.09</v>
+        <v>0.047</v>
       </c>
       <c r="W7" t="n">
-        <v>0.671</v>
+        <v>0.903</v>
       </c>
       <c r="X7" t="n">
-        <v>0.062</v>
+        <v>0.036</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.044</v>
+        <v>0.026</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.246</v>
+        <v>0.19</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.824</v>
+        <v>0.93</v>
       </c>
       <c r="AB7" t="n">
         <v>0.003</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.041</v>
+        <v>0.04</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.052</v>
+        <v>0.05</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.889</v>
+        <v>0.89</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.148</v>
+        <v>0.15</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.109</v>
+        <v>0.112</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.384</v>
+        <v>0.387</v>
       </c>
       <c r="AI7" t="n">
-        <v>-0.003</v>
+        <v>-0.106</v>
       </c>
       <c r="AJ7" t="n">
         <v>5</v>
@@ -1295,100 +1295,100 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0.003</v>
+        <v>0.005</v>
       </c>
       <c r="E8" t="n">
-        <v>0.048</v>
+        <v>0.055</v>
       </c>
       <c r="F8" t="n">
-        <v>0.058</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="G8" t="n">
-        <v>0.189</v>
+        <v>0.047</v>
       </c>
       <c r="H8" t="n">
-        <v>0.057</v>
+        <v>0.06</v>
       </c>
       <c r="I8" t="n">
-        <v>0.047</v>
+        <v>0.051</v>
       </c>
       <c r="J8" t="n">
-        <v>0.24</v>
+        <v>0.245</v>
       </c>
       <c r="K8" t="n">
-        <v>0.242</v>
+        <v>0.106</v>
       </c>
       <c r="L8" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.07099999999999999</v>
+      </c>
+      <c r="O8" t="n">
         <v>0.004</v>
       </c>
-      <c r="M8" t="n">
-        <v>0.051</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0.14</v>
-      </c>
       <c r="P8" t="n">
-        <v>0.058</v>
+        <v>0.061</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.048</v>
+        <v>0.052</v>
       </c>
       <c r="R8" t="n">
-        <v>0.239</v>
+        <v>0.247</v>
       </c>
       <c r="S8" t="n">
-        <v>0.224</v>
+        <v>0.077</v>
       </c>
       <c r="T8" t="n">
         <v>0.004</v>
       </c>
       <c r="U8" t="n">
-        <v>0.056</v>
+        <v>0.049</v>
       </c>
       <c r="V8" t="n">
-        <v>0.066</v>
+        <v>0.06</v>
       </c>
       <c r="W8" t="n">
-        <v>-0.065</v>
+        <v>0.287</v>
       </c>
       <c r="X8" t="n">
         <v>0.065</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.052</v>
+        <v>0.054</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.255</v>
+        <v>0.256</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.033</v>
+        <v>-0.023</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.003</v>
+        <v>0.005</v>
       </c>
       <c r="AC8" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>0.06900000000000001</v>
+      </c>
+      <c r="AE8" t="n">
         <v>0.049</v>
       </c>
-      <c r="AD8" t="n">
-        <v>0.059</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>0.156</v>
-      </c>
       <c r="AF8" t="n">
-        <v>0.068</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="AG8" t="n">
         <v>0.055</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.261</v>
+        <v>0.262</v>
       </c>
       <c r="AI8" t="n">
-        <v>-0.034</v>
+        <v>-0.124</v>
       </c>
       <c r="AJ8" t="n">
         <v>6</v>
@@ -1407,100 +1407,100 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0.002</v>
+        <v>0.004</v>
       </c>
       <c r="E9" t="n">
-        <v>0.037</v>
+        <v>0.051</v>
       </c>
       <c r="F9" t="n">
-        <v>0.044</v>
+        <v>0.06</v>
       </c>
       <c r="G9" t="n">
-        <v>0.891</v>
+        <v>0.838</v>
       </c>
       <c r="H9" t="n">
-        <v>0.041</v>
+        <v>0.048</v>
       </c>
       <c r="I9" t="n">
-        <v>0.033</v>
+        <v>0.038</v>
       </c>
       <c r="J9" t="n">
-        <v>0.203</v>
+        <v>0.219</v>
       </c>
       <c r="K9" t="n">
-        <v>0.914</v>
+        <v>0.875</v>
       </c>
       <c r="L9" t="n">
-        <v>0.018</v>
+        <v>0.232</v>
       </c>
       <c r="M9" t="n">
-        <v>0.08400000000000001</v>
+        <v>0.299</v>
       </c>
       <c r="N9" t="n">
-        <v>0.136</v>
+        <v>0.482</v>
       </c>
       <c r="O9" t="n">
-        <v>-0.027</v>
+        <v>-9.481</v>
       </c>
       <c r="P9" t="n">
+        <v>0.201</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.08699999999999999</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.431</v>
+      </c>
+      <c r="S9" t="n">
+        <v>-1.798</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0.081</v>
+      </c>
+      <c r="V9" t="n">
         <v>0.11</v>
       </c>
-      <c r="Q9" t="n">
-        <v>0.053</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0.322</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0.219</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0.006</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0.052</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0.08</v>
-      </c>
       <c r="W9" t="n">
-        <v>0.638</v>
+        <v>0.449</v>
       </c>
       <c r="X9" t="n">
-        <v>0.053</v>
+        <v>0.05</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.035</v>
+        <v>0.031</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.858</v>
+        <v>0.864</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="AC9" t="n">
-        <v>0.042</v>
+        <v>0.05</v>
       </c>
       <c r="AD9" t="n">
-        <v>0.052</v>
+        <v>0.06</v>
       </c>
       <c r="AE9" t="n">
-        <v>0.849</v>
+        <v>0.838</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.153</v>
+        <v>0.15</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.116</v>
+        <v>0.113</v>
       </c>
       <c r="AH9" t="n">
-        <v>0.392</v>
+        <v>0.387</v>
       </c>
       <c r="AI9" t="n">
-        <v>-0.189</v>
+        <v>-0.215</v>
       </c>
       <c r="AJ9" t="n">
         <v>6</v>
@@ -1519,100 +1519,100 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
       <c r="E10" t="n">
-        <v>0.04</v>
+        <v>0.045</v>
       </c>
       <c r="F10" t="n">
-        <v>0.049</v>
+        <v>0.055</v>
       </c>
       <c r="G10" t="n">
-        <v>0.463</v>
+        <v>0.249</v>
       </c>
       <c r="H10" t="n">
-        <v>0.058</v>
+        <v>0.06</v>
       </c>
       <c r="I10" t="n">
-        <v>0.049</v>
+        <v>0.051</v>
       </c>
       <c r="J10" t="n">
-        <v>0.242</v>
+        <v>0.245</v>
       </c>
       <c r="K10" t="n">
-        <v>0.27</v>
+        <v>0.221</v>
       </c>
       <c r="L10" t="n">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
       <c r="M10" t="n">
-        <v>0.039</v>
+        <v>0.046</v>
       </c>
       <c r="N10" t="n">
+        <v>0.054</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.258</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.063</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.054</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.251</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.138</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="U10" t="n">
         <v>0.048</v>
       </c>
-      <c r="O10" t="n">
-        <v>0.475</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0.051</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0.245</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0.231</v>
-      </c>
-      <c r="T10" t="n">
+      <c r="V10" t="n">
+        <v>0.064</v>
+      </c>
+      <c r="W10" t="n">
+        <v>-0.026</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0.066</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0.053</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0.257</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0.033</v>
+      </c>
+      <c r="AB10" t="n">
         <v>0.003</v>
       </c>
-      <c r="U10" t="n">
-        <v>0.045</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0.056</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="X10" t="n">
-        <v>0.065</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>0.052</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>0.254</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>0.068</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>0.002</v>
-      </c>
       <c r="AC10" t="n">
-        <v>0.039</v>
+        <v>0.044</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.049</v>
+        <v>0.055</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.471</v>
+        <v>0.23</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="AG10" t="n">
         <v>0.056</v>
       </c>
       <c r="AH10" t="n">
-        <v>0.264</v>
+        <v>0.266</v>
       </c>
       <c r="AI10" t="n">
-        <v>-0.008999999999999999</v>
+        <v>-0.073</v>
       </c>
       <c r="AJ10" t="n">
         <v>7</v>
@@ -1631,100 +1631,100 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0.007</v>
+        <v>0.003</v>
       </c>
       <c r="E11" t="n">
-        <v>0.079</v>
+        <v>0.034</v>
       </c>
       <c r="F11" t="n">
-        <v>0.08599999999999999</v>
+        <v>0.051</v>
       </c>
       <c r="G11" t="n">
-        <v>0.489</v>
+        <v>0.826</v>
       </c>
       <c r="H11" t="n">
-        <v>0.054</v>
+        <v>0.041</v>
       </c>
       <c r="I11" t="n">
-        <v>0.041</v>
+        <v>0.032</v>
       </c>
       <c r="J11" t="n">
-        <v>0.233</v>
+        <v>0.201</v>
       </c>
       <c r="K11" t="n">
-        <v>0.852</v>
+        <v>0.912</v>
       </c>
       <c r="L11" t="n">
-        <v>0.062</v>
+        <v>0.642</v>
       </c>
       <c r="M11" t="n">
-        <v>0.159</v>
+        <v>0.408</v>
       </c>
       <c r="N11" t="n">
-        <v>0.248</v>
+        <v>0.802</v>
       </c>
       <c r="O11" t="n">
-        <v>-3.224</v>
+        <v>-41.883</v>
       </c>
       <c r="P11" t="n">
-        <v>0.17</v>
+        <v>0.039</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.078</v>
+        <v>0.03</v>
       </c>
       <c r="R11" t="n">
-        <v>0.392</v>
+        <v>0.197</v>
       </c>
       <c r="S11" t="n">
-        <v>-1.201</v>
+        <v>0.923</v>
       </c>
       <c r="T11" t="n">
-        <v>0.013</v>
+        <v>0.003</v>
       </c>
       <c r="U11" t="n">
-        <v>0.078</v>
+        <v>0.037</v>
       </c>
       <c r="V11" t="n">
-        <v>0.112</v>
+        <v>0.056</v>
       </c>
       <c r="W11" t="n">
-        <v>0.139</v>
+        <v>0.792</v>
       </c>
       <c r="X11" t="n">
-        <v>0.045</v>
+        <v>0.033</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.034</v>
+        <v>0.023</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.212</v>
+        <v>0.181</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.898</v>
+        <v>0.944</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.008</v>
+        <v>0.002</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.081</v>
+        <v>0.035</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.447</v>
+        <v>0.834</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.146</v>
+        <v>0.147</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.112</v>
+        <v>0.111</v>
       </c>
       <c r="AH11" t="n">
-        <v>0.382</v>
+        <v>0.383</v>
       </c>
       <c r="AI11" t="n">
-        <v>-0.027</v>
+        <v>-0.065</v>
       </c>
       <c r="AJ11" t="n">
         <v>7</v>
@@ -1743,100 +1743,100 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
       <c r="E12" t="n">
-        <v>0.044</v>
+        <v>0.048</v>
       </c>
       <c r="F12" t="n">
-        <v>0.05</v>
+        <v>0.055</v>
       </c>
       <c r="G12" t="n">
-        <v>0.469</v>
+        <v>-0.119</v>
       </c>
       <c r="H12" t="n">
-        <v>0.057</v>
+        <v>0.055</v>
       </c>
       <c r="I12" t="n">
-        <v>0.048</v>
+        <v>0.047</v>
       </c>
       <c r="J12" t="n">
-        <v>0.239</v>
+        <v>0.234</v>
       </c>
       <c r="K12" t="n">
-        <v>0.297</v>
+        <v>0.35</v>
       </c>
       <c r="L12" t="n">
         <v>0.003</v>
       </c>
       <c r="M12" t="n">
-        <v>0.045</v>
+        <v>0.049</v>
       </c>
       <c r="N12" t="n">
-        <v>0.052</v>
+        <v>0.056</v>
       </c>
       <c r="O12" t="n">
-        <v>0.428</v>
+        <v>-0.147</v>
       </c>
       <c r="P12" t="n">
-        <v>0.059</v>
+        <v>0.055</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.05</v>
+        <v>0.048</v>
       </c>
       <c r="R12" t="n">
-        <v>0.242</v>
+        <v>0.235</v>
       </c>
       <c r="S12" t="n">
-        <v>0.248</v>
+        <v>0.331</v>
       </c>
       <c r="T12" t="n">
         <v>0.003</v>
       </c>
       <c r="U12" t="n">
-        <v>0.046</v>
+        <v>0.042</v>
       </c>
       <c r="V12" t="n">
-        <v>0.058</v>
+        <v>0.055</v>
       </c>
       <c r="W12" t="n">
-        <v>0.278</v>
+        <v>-0.112</v>
       </c>
       <c r="X12" t="n">
-        <v>0.06900000000000001</v>
+        <v>0.053</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.055</v>
+        <v>0.042</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.262</v>
+        <v>0.23</v>
       </c>
       <c r="AA12" t="n">
-        <v>-0.007</v>
+        <v>0.369</v>
       </c>
       <c r="AB12" t="n">
         <v>0.003</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.044</v>
+        <v>0.048</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.05</v>
+        <v>0.055</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.456</v>
+        <v>-0.112</v>
       </c>
       <c r="AF12" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="AG12" t="n">
         <v>0.055</v>
       </c>
       <c r="AH12" t="n">
-        <v>0.264</v>
+        <v>0.263</v>
       </c>
       <c r="AI12" t="n">
-        <v>-0.035</v>
+        <v>-0.028</v>
       </c>
       <c r="AJ12" t="n">
         <v>8</v>
@@ -1855,100 +1855,100 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="E13" t="n">
-        <v>0.03</v>
+        <v>0.036</v>
       </c>
       <c r="F13" t="n">
-        <v>0.036</v>
+        <v>0.043</v>
       </c>
       <c r="G13" t="n">
-        <v>0.916</v>
+        <v>0.915</v>
       </c>
       <c r="H13" t="n">
-        <v>0.039</v>
+        <v>0.037</v>
       </c>
       <c r="I13" t="n">
-        <v>0.032</v>
+        <v>0.029</v>
       </c>
       <c r="J13" t="n">
-        <v>0.197</v>
+        <v>0.191</v>
       </c>
       <c r="K13" t="n">
-        <v>0.917</v>
+        <v>0.931</v>
       </c>
       <c r="L13" t="n">
-        <v>0.002</v>
+        <v>0.005</v>
       </c>
       <c r="M13" t="n">
-        <v>0.033</v>
+        <v>0.053</v>
       </c>
       <c r="N13" t="n">
-        <v>0.049</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="O13" t="n">
-        <v>0.846</v>
+        <v>0.782</v>
       </c>
       <c r="P13" t="n">
-        <v>0.043</v>
+        <v>0.05</v>
       </c>
       <c r="Q13" t="n">
         <v>0.034</v>
       </c>
       <c r="R13" t="n">
-        <v>0.207</v>
+        <v>0.22</v>
       </c>
       <c r="S13" t="n">
-        <v>0.903</v>
+        <v>0.851</v>
       </c>
       <c r="T13" t="n">
-        <v>0.006</v>
+        <v>0.005</v>
       </c>
       <c r="U13" t="n">
-        <v>0.052</v>
+        <v>0.053</v>
       </c>
       <c r="V13" t="n">
-        <v>0.078</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="W13" t="n">
-        <v>0.609</v>
+        <v>0.78</v>
       </c>
       <c r="X13" t="n">
-        <v>0.042</v>
+        <v>0.03</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.028</v>
+        <v>0.02</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.203</v>
+        <v>0.173</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.898</v>
+        <v>0.951</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.029</v>
+        <v>0.036</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.038</v>
+        <v>0.043</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.909</v>
+        <v>0.913</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.147</v>
+        <v>0.145</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.113</v>
+        <v>0.112</v>
       </c>
       <c r="AH13" t="n">
-        <v>0.383</v>
+        <v>0.38</v>
       </c>
       <c r="AI13" t="n">
-        <v>-0.08500000000000001</v>
+        <v>-0.06900000000000001</v>
       </c>
       <c r="AJ13" t="n">
         <v>8</v>
@@ -1970,25 +1970,25 @@
         <v>0.004</v>
       </c>
       <c r="E14" t="n">
-        <v>0.051</v>
+        <v>0.053</v>
       </c>
       <c r="F14" t="n">
-        <v>0.059</v>
+        <v>0.063</v>
       </c>
       <c r="G14" t="n">
-        <v>0.255</v>
+        <v>0.196</v>
       </c>
       <c r="H14" t="n">
-        <v>0.059</v>
+        <v>0.054</v>
       </c>
       <c r="I14" t="n">
-        <v>0.05</v>
+        <v>0.046</v>
       </c>
       <c r="J14" t="n">
-        <v>0.243</v>
+        <v>0.233</v>
       </c>
       <c r="K14" t="n">
-        <v>0.268</v>
+        <v>0.349</v>
       </c>
       <c r="L14" t="n">
         <v>0.004</v>
@@ -1997,46 +1997,46 @@
         <v>0.053</v>
       </c>
       <c r="N14" t="n">
-        <v>0.061</v>
+        <v>0.062</v>
       </c>
       <c r="O14" t="n">
-        <v>0.2</v>
+        <v>0.203</v>
       </c>
       <c r="P14" t="n">
-        <v>0.059</v>
+        <v>0.055</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.05</v>
+        <v>0.046</v>
       </c>
       <c r="R14" t="n">
-        <v>0.242</v>
+        <v>0.234</v>
       </c>
       <c r="S14" t="n">
-        <v>0.267</v>
+        <v>0.339</v>
       </c>
       <c r="T14" t="n">
-        <v>0.004</v>
+        <v>0.005</v>
       </c>
       <c r="U14" t="n">
-        <v>0.052</v>
+        <v>0.056</v>
       </c>
       <c r="V14" t="n">
-        <v>0.065</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="W14" t="n">
-        <v>0.102</v>
+        <v>0.014</v>
       </c>
       <c r="X14" t="n">
-        <v>0.068</v>
+        <v>0.058</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.054</v>
+        <v>0.046</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.259</v>
+        <v>0.241</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.039</v>
+        <v>0.246</v>
       </c>
       <c r="AB14" t="n">
         <v>0.004</v>
@@ -2045,10 +2045,10 @@
         <v>0.052</v>
       </c>
       <c r="AD14" t="n">
-        <v>0.06</v>
+        <v>0.066</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.228</v>
+        <v>0.115</v>
       </c>
       <c r="AF14" t="n">
         <v>0.07000000000000001</v>
@@ -2057,10 +2057,10 @@
         <v>0.055</v>
       </c>
       <c r="AH14" t="n">
-        <v>0.265</v>
+        <v>0.264</v>
       </c>
       <c r="AI14" t="n">
-        <v>-0.026</v>
+        <v>-0.028</v>
       </c>
       <c r="AJ14" t="n">
         <v>9</v>
@@ -2079,100 +2079,100 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="E15" t="n">
-        <v>0.032</v>
+        <v>0.037</v>
       </c>
       <c r="F15" t="n">
-        <v>0.036</v>
+        <v>0.048</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9389999999999999</v>
+        <v>0.879</v>
       </c>
       <c r="H15" t="n">
-        <v>0.04</v>
+        <v>0.041</v>
       </c>
       <c r="I15" t="n">
         <v>0.032</v>
       </c>
       <c r="J15" t="n">
-        <v>0.2</v>
+        <v>0.203</v>
       </c>
       <c r="K15" t="n">
-        <v>0.918</v>
+        <v>0.907</v>
       </c>
       <c r="L15" t="n">
+        <v>0.226</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="O15" t="n">
+        <v>-10.652</v>
+      </c>
+      <c r="P15" t="n">
         <v>0.059</v>
       </c>
-      <c r="M15" t="n">
-        <v>0.105</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0.242</v>
-      </c>
-      <c r="O15" t="n">
-        <v>-1.74</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0.043</v>
-      </c>
       <c r="Q15" t="n">
-        <v>0.035</v>
+        <v>0.039</v>
       </c>
       <c r="R15" t="n">
-        <v>0.206</v>
+        <v>0.237</v>
       </c>
       <c r="S15" t="n">
-        <v>0.902</v>
+        <v>0.667</v>
       </c>
       <c r="T15" t="n">
-        <v>0.005</v>
+        <v>0.012</v>
       </c>
       <c r="U15" t="n">
+        <v>0.074</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0.111</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0.369</v>
+      </c>
+      <c r="X15" t="n">
         <v>0.037</v>
       </c>
-      <c r="V15" t="n">
-        <v>0.067</v>
-      </c>
-      <c r="W15" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="X15" t="n">
-        <v>0.022</v>
-      </c>
       <c r="Y15" t="n">
-        <v>0.014</v>
+        <v>0.021</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.147</v>
+        <v>0.188</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.977</v>
+        <v>0.926</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.033</v>
+        <v>0.037</v>
       </c>
       <c r="AD15" t="n">
-        <v>0.038</v>
+        <v>0.049</v>
       </c>
       <c r="AE15" t="n">
-        <v>0.931</v>
+        <v>0.878</v>
       </c>
       <c r="AF15" t="n">
         <v>0.143</v>
       </c>
       <c r="AG15" t="n">
-        <v>0.11</v>
+        <v>0.112</v>
       </c>
       <c r="AH15" t="n">
         <v>0.378</v>
       </c>
       <c r="AI15" t="n">
-        <v>-0.012</v>
+        <v>-0.065</v>
       </c>
       <c r="AJ15" t="n">
         <v>9</v>
@@ -2194,85 +2194,85 @@
         <v>0.003</v>
       </c>
       <c r="E16" t="n">
-        <v>0.043</v>
+        <v>0.047</v>
       </c>
       <c r="F16" t="n">
+        <v>0.057</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.514</v>
+      </c>
+      <c r="H16" t="n">
         <v>0.054</v>
       </c>
-      <c r="G16" t="n">
-        <v>0.467</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0.056</v>
-      </c>
       <c r="I16" t="n">
-        <v>0.048</v>
+        <v>0.044</v>
       </c>
       <c r="J16" t="n">
-        <v>0.237</v>
+        <v>0.232</v>
       </c>
       <c r="K16" t="n">
-        <v>0.378</v>
+        <v>0.432</v>
       </c>
       <c r="L16" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="M16" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.446</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.054</v>
+      </c>
+      <c r="Q16" t="n">
         <v>0.044</v>
       </c>
-      <c r="N16" t="n">
-        <v>0.056</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0.443</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0.057</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>0.048</v>
-      </c>
       <c r="R16" t="n">
-        <v>0.239</v>
+        <v>0.232</v>
       </c>
       <c r="S16" t="n">
-        <v>0.361</v>
+        <v>0.429</v>
       </c>
       <c r="T16" t="n">
         <v>0.004</v>
       </c>
       <c r="U16" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0.406</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0.061</v>
+      </c>
+      <c r="Y16" t="n">
         <v>0.048</v>
       </c>
-      <c r="V16" t="n">
-        <v>0.061</v>
-      </c>
-      <c r="W16" t="n">
-        <v>0.324</v>
-      </c>
-      <c r="X16" t="n">
-        <v>0.062</v>
-      </c>
-      <c r="Y16" t="n">
+      <c r="Z16" t="n">
+        <v>0.246</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>0.274</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="AC16" t="n">
         <v>0.049</v>
       </c>
-      <c r="Z16" t="n">
-        <v>0.249</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>0.243</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>0.003</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>0.044</v>
-      </c>
       <c r="AD16" t="n">
-        <v>0.055</v>
+        <v>0.059</v>
       </c>
       <c r="AE16" t="n">
-        <v>0.452</v>
+        <v>0.463</v>
       </c>
       <c r="AF16" t="n">
         <v>0.074</v>
@@ -2281,10 +2281,10 @@
         <v>0.059</v>
       </c>
       <c r="AH16" t="n">
-        <v>0.272</v>
+        <v>0.271</v>
       </c>
       <c r="AI16" t="n">
-        <v>-0.051</v>
+        <v>-0.034</v>
       </c>
       <c r="AJ16" t="n">
         <v>10</v>
@@ -2303,88 +2303,88 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="E17" t="n">
-        <v>0.044</v>
+        <v>0.043</v>
       </c>
       <c r="F17" t="n">
-        <v>0.052</v>
+        <v>0.049</v>
       </c>
       <c r="G17" t="n">
-        <v>0.901</v>
+        <v>0.863</v>
       </c>
       <c r="H17" t="n">
-        <v>0.042</v>
+        <v>0.04</v>
       </c>
       <c r="I17" t="n">
-        <v>0.034</v>
+        <v>0.033</v>
       </c>
       <c r="J17" t="n">
-        <v>0.206</v>
+        <v>0.2</v>
       </c>
       <c r="K17" t="n">
-        <v>0.922</v>
+        <v>0.927</v>
       </c>
       <c r="L17" t="n">
-        <v>0.301</v>
+        <v>0.026</v>
       </c>
       <c r="M17" t="n">
-        <v>0.448</v>
+        <v>0.121</v>
       </c>
       <c r="N17" t="n">
-        <v>0.549</v>
+        <v>0.16</v>
       </c>
       <c r="O17" t="n">
-        <v>-10.141</v>
+        <v>-0.471</v>
       </c>
       <c r="P17" t="n">
-        <v>0.047</v>
+        <v>0.043</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.036</v>
+        <v>0.035</v>
       </c>
       <c r="R17" t="n">
-        <v>0.216</v>
+        <v>0.208</v>
       </c>
       <c r="S17" t="n">
-        <v>0.904</v>
+        <v>0.915</v>
       </c>
       <c r="T17" t="n">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
       <c r="U17" t="n">
-        <v>0.046</v>
+        <v>0.022</v>
       </c>
       <c r="V17" t="n">
-        <v>0.056</v>
+        <v>0.031</v>
       </c>
       <c r="W17" t="n">
-        <v>0.885</v>
+        <v>0.944</v>
       </c>
       <c r="X17" t="n">
-        <v>0.039</v>
+        <v>0.04</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.028</v>
+        <v>0.022</v>
       </c>
       <c r="Z17" t="n">
         <v>0.196</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.9330000000000001</v>
+        <v>0.924</v>
       </c>
       <c r="AB17" t="n">
         <v>0.003</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.043</v>
+        <v>0.044</v>
       </c>
       <c r="AD17" t="n">
-        <v>0.051</v>
+        <v>0.05</v>
       </c>
       <c r="AE17" t="n">
-        <v>0.902</v>
+        <v>0.855</v>
       </c>
       <c r="AF17" t="n">
         <v>0.155</v>
@@ -2393,10 +2393,10 @@
         <v>0.115</v>
       </c>
       <c r="AH17" t="n">
-        <v>0.393</v>
+        <v>0.394</v>
       </c>
       <c r="AI17" t="n">
-        <v>-0.036</v>
+        <v>-0.051</v>
       </c>
       <c r="AJ17" t="n">
         <v>10</v>
@@ -2418,73 +2418,73 @@
         <v>0.003</v>
       </c>
       <c r="E18" t="n">
-        <v>0.048</v>
+        <v>0.047</v>
       </c>
       <c r="F18" t="n">
-        <v>0.059</v>
+        <v>0.057</v>
       </c>
       <c r="G18" t="n">
-        <v>0.399</v>
+        <v>0.454</v>
       </c>
       <c r="H18" t="n">
-        <v>0.057</v>
+        <v>0.056</v>
       </c>
       <c r="I18" t="n">
         <v>0.047</v>
       </c>
       <c r="J18" t="n">
-        <v>0.238</v>
+        <v>0.236</v>
       </c>
       <c r="K18" t="n">
-        <v>0.378</v>
+        <v>0.329</v>
       </c>
       <c r="L18" t="n">
-        <v>0.004</v>
+        <v>0.003</v>
       </c>
       <c r="M18" t="n">
-        <v>0.049</v>
+        <v>0.048</v>
       </c>
       <c r="N18" t="n">
-        <v>0.06</v>
+        <v>0.057</v>
       </c>
       <c r="O18" t="n">
-        <v>0.373</v>
+        <v>0.459</v>
       </c>
       <c r="P18" t="n">
-        <v>0.057</v>
+        <v>0.056</v>
       </c>
       <c r="Q18" t="n">
         <v>0.047</v>
       </c>
       <c r="R18" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0.187</v>
+      </c>
+      <c r="X18" t="n">
+        <v>0.057</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="Z18" t="n">
         <v>0.238</v>
       </c>
-      <c r="S18" t="n">
-        <v>0.375</v>
-      </c>
-      <c r="T18" t="n">
-        <v>0.003</v>
-      </c>
-      <c r="U18" t="n">
-        <v>0.039</v>
-      </c>
-      <c r="V18" t="n">
-        <v>0.052</v>
-      </c>
-      <c r="W18" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="X18" t="n">
-        <v>0.065</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>0.053</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>0.255</v>
-      </c>
       <c r="AA18" t="n">
-        <v>0.172</v>
+        <v>0.319</v>
       </c>
       <c r="AB18" t="n">
         <v>0.003</v>
@@ -2496,19 +2496,19 @@
         <v>0.058</v>
       </c>
       <c r="AE18" t="n">
-        <v>0.411</v>
+        <v>0.435</v>
       </c>
       <c r="AF18" t="n">
-        <v>0.07199999999999999</v>
+        <v>0.073</v>
       </c>
       <c r="AG18" t="n">
-        <v>0.057</v>
+        <v>0.058</v>
       </c>
       <c r="AH18" t="n">
-        <v>0.269</v>
+        <v>0.27</v>
       </c>
       <c r="AI18" t="n">
-        <v>-0.008</v>
+        <v>-0.108</v>
       </c>
       <c r="AJ18" t="n">
         <v>11</v>
@@ -2527,100 +2527,100 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="E19" t="n">
-        <v>0.044</v>
+        <v>0.043</v>
       </c>
       <c r="F19" t="n">
-        <v>0.052</v>
+        <v>0.05</v>
       </c>
       <c r="G19" t="n">
-        <v>0.873</v>
+        <v>0.891</v>
       </c>
       <c r="H19" t="n">
-        <v>0.04</v>
+        <v>0.041</v>
       </c>
       <c r="I19" t="n">
-        <v>0.031</v>
+        <v>0.033</v>
       </c>
       <c r="J19" t="n">
-        <v>0.198</v>
+        <v>0.202</v>
       </c>
       <c r="K19" t="n">
-        <v>0.929</v>
+        <v>0.925</v>
       </c>
       <c r="L19" t="n">
-        <v>0.008</v>
+        <v>0.064</v>
       </c>
       <c r="M19" t="n">
-        <v>0.06900000000000001</v>
+        <v>0.202</v>
       </c>
       <c r="N19" t="n">
-        <v>0.09</v>
+        <v>0.254</v>
       </c>
       <c r="O19" t="n">
-        <v>0.616</v>
+        <v>-1.82</v>
       </c>
       <c r="P19" t="n">
-        <v>0.044</v>
+        <v>0.042</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.033</v>
+        <v>0.034</v>
       </c>
       <c r="R19" t="n">
-        <v>0.208</v>
+        <v>0.204</v>
       </c>
       <c r="S19" t="n">
-        <v>0.91</v>
+        <v>0.921</v>
       </c>
       <c r="T19" t="n">
-        <v>0.003</v>
+        <v>0.007</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04</v>
+        <v>0.055</v>
       </c>
       <c r="V19" t="n">
-        <v>0.053</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="W19" t="n">
-        <v>0.867</v>
+        <v>0.6820000000000001</v>
       </c>
       <c r="X19" t="n">
-        <v>0.033</v>
+        <v>0.032</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.021</v>
+        <v>0.02</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.18</v>
+        <v>0.176</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.952</v>
+        <v>0.953</v>
       </c>
       <c r="AB19" t="n">
         <v>0.003</v>
       </c>
       <c r="AC19" t="n">
-        <v>0.044</v>
+        <v>0.045</v>
       </c>
       <c r="AD19" t="n">
-        <v>0.052</v>
+        <v>0.051</v>
       </c>
       <c r="AE19" t="n">
-        <v>0.872</v>
+        <v>0.884</v>
       </c>
       <c r="AF19" t="n">
-        <v>0.154</v>
+        <v>0.152</v>
       </c>
       <c r="AG19" t="n">
-        <v>0.115</v>
+        <v>0.114</v>
       </c>
       <c r="AH19" t="n">
-        <v>0.392</v>
+        <v>0.389</v>
       </c>
       <c r="AI19" t="n">
-        <v>-0.062</v>
+        <v>-0.01</v>
       </c>
       <c r="AJ19" t="n">
         <v>11</v>
@@ -2642,85 +2642,85 @@
         <v>0.003</v>
       </c>
       <c r="E20" t="n">
-        <v>0.043</v>
+        <v>0.044</v>
       </c>
       <c r="F20" t="n">
-        <v>0.055</v>
+        <v>0.054</v>
       </c>
       <c r="G20" t="n">
-        <v>0.492</v>
+        <v>0.435</v>
       </c>
       <c r="H20" t="n">
         <v>0.055</v>
       </c>
       <c r="I20" t="n">
-        <v>0.047</v>
+        <v>0.046</v>
       </c>
       <c r="J20" t="n">
-        <v>0.235</v>
+        <v>0.233</v>
       </c>
       <c r="K20" t="n">
-        <v>0.419</v>
+        <v>0.41</v>
       </c>
       <c r="L20" t="n">
         <v>0.003</v>
       </c>
       <c r="M20" t="n">
-        <v>0.044</v>
+        <v>0.046</v>
       </c>
       <c r="N20" t="n">
-        <v>0.055</v>
+        <v>0.056</v>
       </c>
       <c r="O20" t="n">
-        <v>0.493</v>
+        <v>0.386</v>
       </c>
       <c r="P20" t="n">
         <v>0.055</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.047</v>
+        <v>0.046</v>
       </c>
       <c r="R20" t="n">
-        <v>0.235</v>
+        <v>0.233</v>
       </c>
       <c r="S20" t="n">
-        <v>0.416</v>
+        <v>0.409</v>
       </c>
       <c r="T20" t="n">
-        <v>0.004</v>
+        <v>0.002</v>
       </c>
       <c r="U20" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0.518</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0.061</v>
+      </c>
+      <c r="Y20" t="n">
         <v>0.046</v>
       </c>
-      <c r="V20" t="n">
-        <v>0.061</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0.051</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>0.041</v>
-      </c>
       <c r="Z20" t="n">
-        <v>0.226</v>
+        <v>0.246</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.489</v>
+        <v>0.249</v>
       </c>
       <c r="AB20" t="n">
         <v>0.003</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.043</v>
+        <v>0.045</v>
       </c>
       <c r="AD20" t="n">
         <v>0.055</v>
       </c>
       <c r="AE20" t="n">
-        <v>0.495</v>
+        <v>0.424</v>
       </c>
       <c r="AF20" t="n">
         <v>0.073</v>
@@ -2732,7 +2732,7 @@
         <v>0.27</v>
       </c>
       <c r="AI20" t="n">
-        <v>-0.015</v>
+        <v>-0.031</v>
       </c>
       <c r="AJ20" t="n">
         <v>12</v>
@@ -2754,97 +2754,97 @@
         <v>0.002</v>
       </c>
       <c r="E21" t="n">
-        <v>0.033</v>
+        <v>0.036</v>
       </c>
       <c r="F21" t="n">
-        <v>0.041</v>
+        <v>0.043</v>
       </c>
       <c r="G21" t="n">
-        <v>0.947</v>
+        <v>0.925</v>
       </c>
       <c r="H21" t="n">
-        <v>0.04</v>
+        <v>0.038</v>
       </c>
       <c r="I21" t="n">
-        <v>0.032</v>
+        <v>0.031</v>
       </c>
       <c r="J21" t="n">
-        <v>0.199</v>
+        <v>0.193</v>
       </c>
       <c r="K21" t="n">
-        <v>0.9320000000000001</v>
+        <v>0.93</v>
       </c>
       <c r="L21" t="n">
-        <v>0.003</v>
+        <v>0.006</v>
       </c>
       <c r="M21" t="n">
-        <v>0.047</v>
+        <v>0.057</v>
       </c>
       <c r="N21" t="n">
-        <v>0.058</v>
+        <v>0.08</v>
       </c>
       <c r="O21" t="n">
-        <v>0.893</v>
+        <v>0.735</v>
       </c>
       <c r="P21" t="n">
-        <v>0.041</v>
+        <v>0.038</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.033</v>
+        <v>0.031</v>
       </c>
       <c r="R21" t="n">
-        <v>0.203</v>
+        <v>0.194</v>
       </c>
       <c r="S21" t="n">
-        <v>0.926</v>
+        <v>0.93</v>
       </c>
       <c r="T21" t="n">
-        <v>0.003</v>
+        <v>0.007</v>
       </c>
       <c r="U21" t="n">
-        <v>0.036</v>
+        <v>0.061</v>
       </c>
       <c r="V21" t="n">
-        <v>0.055</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="W21" t="n">
-        <v>0.906</v>
+        <v>0.699</v>
       </c>
       <c r="X21" t="n">
-        <v>0.034</v>
+        <v>0.028</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.023</v>
+        <v>0.018</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.183</v>
+        <v>0.167</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.95</v>
+        <v>0.965</v>
       </c>
       <c r="AB21" t="n">
         <v>0.002</v>
       </c>
       <c r="AC21" t="n">
-        <v>0.032</v>
+        <v>0.037</v>
       </c>
       <c r="AD21" t="n">
-        <v>0.041</v>
+        <v>0.044</v>
       </c>
       <c r="AE21" t="n">
-        <v>0.947</v>
+        <v>0.921</v>
       </c>
       <c r="AF21" t="n">
         <v>0.152</v>
       </c>
       <c r="AG21" t="n">
-        <v>0.114</v>
+        <v>0.113</v>
       </c>
       <c r="AH21" t="n">
         <v>0.39</v>
       </c>
       <c r="AI21" t="n">
-        <v>-0.005</v>
+        <v>-0.011</v>
       </c>
       <c r="AJ21" t="n">
         <v>12</v>
@@ -2863,16 +2863,16 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
       <c r="E22" t="n">
-        <v>0.041</v>
+        <v>0.046</v>
       </c>
       <c r="F22" t="n">
-        <v>0.049</v>
+        <v>0.057</v>
       </c>
       <c r="G22" t="n">
-        <v>0.604</v>
+        <v>0.523</v>
       </c>
       <c r="H22" t="n">
         <v>0.055</v>
@@ -2884,19 +2884,19 @@
         <v>0.234</v>
       </c>
       <c r="K22" t="n">
-        <v>0.489</v>
+        <v>0.495</v>
       </c>
       <c r="L22" t="n">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
       <c r="M22" t="n">
-        <v>0.041</v>
+        <v>0.045</v>
       </c>
       <c r="N22" t="n">
-        <v>0.049</v>
+        <v>0.053</v>
       </c>
       <c r="O22" t="n">
-        <v>0.605</v>
+        <v>0.601</v>
       </c>
       <c r="P22" t="n">
         <v>0.055</v>
@@ -2911,40 +2911,40 @@
         <v>0.491</v>
       </c>
       <c r="T22" t="n">
-        <v>0.004</v>
+        <v>0.005</v>
       </c>
       <c r="U22" t="n">
-        <v>0.049</v>
+        <v>0.053</v>
       </c>
       <c r="V22" t="n">
-        <v>0.063</v>
+        <v>0.068</v>
       </c>
       <c r="W22" t="n">
-        <v>0.34</v>
+        <v>0.341</v>
       </c>
       <c r="X22" t="n">
-        <v>0.049</v>
+        <v>0.053</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.039</v>
+        <v>0.043</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.221</v>
+        <v>0.23</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.5639999999999999</v>
+        <v>0.513</v>
       </c>
       <c r="AB22" t="n">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
       <c r="AC22" t="n">
-        <v>0.04</v>
+        <v>0.045</v>
       </c>
       <c r="AD22" t="n">
-        <v>0.049</v>
+        <v>0.055</v>
       </c>
       <c r="AE22" t="n">
-        <v>0.602</v>
+        <v>0.5590000000000001</v>
       </c>
       <c r="AF22" t="n">
         <v>0.078</v>
@@ -2956,7 +2956,7 @@
         <v>0.28</v>
       </c>
       <c r="AI22" t="n">
-        <v>-0.039</v>
+        <v>-0.035</v>
       </c>
       <c r="AJ22" t="n">
         <v>13</v>
@@ -2978,37 +2978,37 @@
         <v>0.002</v>
       </c>
       <c r="E23" t="n">
-        <v>0.035</v>
+        <v>0.039</v>
       </c>
       <c r="F23" t="n">
-        <v>0.045</v>
+        <v>0.048</v>
       </c>
       <c r="G23" t="n">
-        <v>0.922</v>
+        <v>0.909</v>
       </c>
       <c r="H23" t="n">
-        <v>0.04</v>
+        <v>0.041</v>
       </c>
       <c r="I23" t="n">
-        <v>0.032</v>
+        <v>0.033</v>
       </c>
       <c r="J23" t="n">
-        <v>0.199</v>
+        <v>0.203</v>
       </c>
       <c r="K23" t="n">
-        <v>0.931</v>
+        <v>0.925</v>
       </c>
       <c r="L23" t="n">
-        <v>0.007</v>
+        <v>0.005</v>
       </c>
       <c r="M23" t="n">
+        <v>0.057</v>
+      </c>
+      <c r="N23" t="n">
         <v>0.068</v>
       </c>
-      <c r="N23" t="n">
-        <v>0.08599999999999999</v>
-      </c>
       <c r="O23" t="n">
-        <v>0.722</v>
+        <v>0.8139999999999999</v>
       </c>
       <c r="P23" t="n">
         <v>0.041</v>
@@ -3017,58 +3017,58 @@
         <v>0.033</v>
       </c>
       <c r="R23" t="n">
-        <v>0.203</v>
+        <v>0.202</v>
       </c>
       <c r="S23" t="n">
-        <v>0.924</v>
+        <v>0.925</v>
       </c>
       <c r="T23" t="n">
         <v>0.003</v>
       </c>
       <c r="U23" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="X23" t="n">
         <v>0.032</v>
       </c>
-      <c r="V23" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0.905</v>
-      </c>
-      <c r="X23" t="n">
-        <v>0.043</v>
-      </c>
       <c r="Y23" t="n">
-        <v>0.029</v>
+        <v>0.021</v>
       </c>
       <c r="Z23" t="n">
-        <v>0.207</v>
+        <v>0.177</v>
       </c>
       <c r="AA23" t="n">
-        <v>0.918</v>
+        <v>0.954</v>
       </c>
       <c r="AB23" t="n">
         <v>0.002</v>
       </c>
       <c r="AC23" t="n">
-        <v>0.035</v>
+        <v>0.04</v>
       </c>
       <c r="AD23" t="n">
-        <v>0.045</v>
+        <v>0.05</v>
       </c>
       <c r="AE23" t="n">
-        <v>0.924</v>
+        <v>0.9</v>
       </c>
       <c r="AF23" t="n">
         <v>0.153</v>
       </c>
       <c r="AG23" t="n">
-        <v>0.116</v>
+        <v>0.115</v>
       </c>
       <c r="AH23" t="n">
-        <v>0.391</v>
+        <v>0.39</v>
       </c>
       <c r="AI23" t="n">
-        <v>-0.025</v>
+        <v>-0.008999999999999999</v>
       </c>
       <c r="AJ23" t="n">
         <v>13</v>
@@ -3090,13 +3090,13 @@
         <v>0.003</v>
       </c>
       <c r="E24" t="n">
-        <v>0.046</v>
+        <v>0.041</v>
       </c>
       <c r="F24" t="n">
-        <v>0.055</v>
+        <v>0.05</v>
       </c>
       <c r="G24" t="n">
-        <v>0.44</v>
+        <v>0.556</v>
       </c>
       <c r="H24" t="n">
         <v>0.056</v>
@@ -3108,19 +3108,19 @@
         <v>0.236</v>
       </c>
       <c r="K24" t="n">
-        <v>0.474</v>
+        <v>0.416</v>
       </c>
       <c r="L24" t="n">
         <v>0.003</v>
       </c>
       <c r="M24" t="n">
-        <v>0.047</v>
+        <v>0.043</v>
       </c>
       <c r="N24" t="n">
-        <v>0.056</v>
+        <v>0.052</v>
       </c>
       <c r="O24" t="n">
-        <v>0.419</v>
+        <v>0.523</v>
       </c>
       <c r="P24" t="n">
         <v>0.056</v>
@@ -3132,55 +3132,55 @@
         <v>0.237</v>
       </c>
       <c r="S24" t="n">
-        <v>0.469</v>
+        <v>0.411</v>
       </c>
       <c r="T24" t="n">
         <v>0.003</v>
       </c>
       <c r="U24" t="n">
-        <v>0.042</v>
+        <v>0.045</v>
       </c>
       <c r="V24" t="n">
         <v>0.055</v>
       </c>
       <c r="W24" t="n">
-        <v>0.448</v>
+        <v>0.462</v>
       </c>
       <c r="X24" t="n">
-        <v>0.058</v>
+        <v>0.052</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.046</v>
+        <v>0.042</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.24</v>
+        <v>0.228</v>
       </c>
       <c r="AA24" t="n">
-        <v>0.44</v>
+        <v>0.501</v>
       </c>
       <c r="AB24" t="n">
         <v>0.003</v>
       </c>
       <c r="AC24" t="n">
-        <v>0.047</v>
+        <v>0.043</v>
       </c>
       <c r="AD24" t="n">
-        <v>0.055</v>
+        <v>0.052</v>
       </c>
       <c r="AE24" t="n">
-        <v>0.438</v>
+        <v>0.53</v>
       </c>
       <c r="AF24" t="n">
-        <v>0.079</v>
+        <v>0.077</v>
       </c>
       <c r="AG24" t="n">
-        <v>0.062</v>
+        <v>0.061</v>
       </c>
       <c r="AH24" t="n">
-        <v>0.281</v>
+        <v>0.278</v>
       </c>
       <c r="AI24" t="n">
-        <v>-0.046</v>
+        <v>-0.007</v>
       </c>
       <c r="AJ24" t="n">
         <v>14</v>
@@ -3199,100 +3199,100 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="E25" t="n">
-        <v>0.037</v>
+        <v>0.031</v>
       </c>
       <c r="F25" t="n">
-        <v>0.045</v>
+        <v>0.038</v>
       </c>
       <c r="G25" t="n">
-        <v>0.929</v>
+        <v>0.9429999999999999</v>
       </c>
       <c r="H25" t="n">
-        <v>0.039</v>
+        <v>0.038</v>
       </c>
       <c r="I25" t="n">
-        <v>0.031</v>
+        <v>0.03</v>
       </c>
       <c r="J25" t="n">
-        <v>0.196</v>
+        <v>0.194</v>
       </c>
       <c r="K25" t="n">
-        <v>0.931</v>
+        <v>0.926</v>
       </c>
       <c r="L25" t="n">
         <v>0.003</v>
       </c>
       <c r="M25" t="n">
-        <v>0.048</v>
+        <v>0.044</v>
       </c>
       <c r="N25" t="n">
-        <v>0.059</v>
+        <v>0.055</v>
       </c>
       <c r="O25" t="n">
-        <v>0.879</v>
+        <v>0.88</v>
       </c>
       <c r="P25" t="n">
-        <v>0.041</v>
+        <v>0.039</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.033</v>
+        <v>0.031</v>
       </c>
       <c r="R25" t="n">
-        <v>0.202</v>
+        <v>0.196</v>
       </c>
       <c r="S25" t="n">
-        <v>0.923</v>
+        <v>0.921</v>
       </c>
       <c r="T25" t="n">
-        <v>0.006</v>
+        <v>0.005</v>
       </c>
       <c r="U25" t="n">
-        <v>0.054</v>
+        <v>0.055</v>
       </c>
       <c r="V25" t="n">
-        <v>0.076</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="W25" t="n">
-        <v>0.8</v>
+        <v>0.795</v>
       </c>
       <c r="X25" t="n">
-        <v>0.035</v>
+        <v>0.034</v>
       </c>
       <c r="Y25" t="n">
         <v>0.023</v>
       </c>
       <c r="Z25" t="n">
-        <v>0.187</v>
+        <v>0.183</v>
       </c>
       <c r="AA25" t="n">
-        <v>0.9429999999999999</v>
+        <v>0.9320000000000001</v>
       </c>
       <c r="AB25" t="n">
         <v>0.002</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.037</v>
+        <v>0.032</v>
       </c>
       <c r="AD25" t="n">
-        <v>0.045</v>
+        <v>0.039</v>
       </c>
       <c r="AE25" t="n">
-        <v>0.929</v>
+        <v>0.9389999999999999</v>
       </c>
       <c r="AF25" t="n">
-        <v>0.158</v>
+        <v>0.154</v>
       </c>
       <c r="AG25" t="n">
-        <v>0.12</v>
+        <v>0.117</v>
       </c>
       <c r="AH25" t="n">
-        <v>0.397</v>
+        <v>0.391</v>
       </c>
       <c r="AI25" t="n">
-        <v>-0.126</v>
+        <v>-0.148</v>
       </c>
       <c r="AJ25" t="n">
         <v>14</v>
@@ -3311,100 +3311,100 @@
         <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>0.004</v>
+        <v>0.002</v>
       </c>
       <c r="E26" t="n">
-        <v>0.054</v>
+        <v>0.032</v>
       </c>
       <c r="F26" t="n">
-        <v>0.061</v>
+        <v>0.042</v>
       </c>
       <c r="G26" t="n">
-        <v>0.344</v>
+        <v>0.394</v>
       </c>
       <c r="H26" t="n">
+        <v>0.063</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.052</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.249</v>
+      </c>
+      <c r="K26" t="n">
+        <v>-0.099</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0.073</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0.058</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0.268</v>
+      </c>
+      <c r="S26" t="n">
+        <v>-0.436</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0.064</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0.073</v>
+      </c>
+      <c r="W26" t="n">
+        <v>-0.832</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0.07099999999999999</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>0.263</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>-0.528</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>0.033</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>0.043</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>0.362</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AG26" t="n">
         <v>0.059</v>
       </c>
-      <c r="I26" t="n">
-        <v>0.049</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.242</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0.305</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0.004</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0.056</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0.064</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0.275</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0.08799999999999999</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0.061</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0.292</v>
-      </c>
-      <c r="S26" t="n">
-        <v>-1.065</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0.006</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0.07199999999999999</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0.079</v>
-      </c>
-      <c r="W26" t="n">
-        <v>-0.091</v>
-      </c>
-      <c r="X26" t="n">
-        <v>0.073</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>-0.076</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>0.004</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>0.053</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>0.374</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>0.07099999999999999</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>0.058</v>
-      </c>
       <c r="AH26" t="n">
-        <v>0.266</v>
+        <v>0.263</v>
       </c>
       <c r="AI26" t="n">
-        <v>-0.013</v>
+        <v>-0.221</v>
       </c>
       <c r="AJ26" t="n">
         <v>3</v>
@@ -3423,100 +3423,100 @@
         <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>0.003</v>
+        <v>0.006</v>
       </c>
       <c r="E27" t="n">
-        <v>0.048</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="F27" t="n">
+        <v>0.078</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.616</v>
+      </c>
+      <c r="H27" t="n">
         <v>0.053</v>
       </c>
-      <c r="G27" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0.044</v>
-      </c>
       <c r="I27" t="n">
-        <v>0.037</v>
+        <v>0.04</v>
       </c>
       <c r="J27" t="n">
-        <v>0.207</v>
+        <v>0.231</v>
       </c>
       <c r="K27" t="n">
-        <v>0.908</v>
+        <v>0.837</v>
       </c>
       <c r="L27" t="n">
-        <v>0.003</v>
+        <v>0.006</v>
       </c>
       <c r="M27" t="n">
-        <v>0.048</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="N27" t="n">
-        <v>0.053</v>
+        <v>0.078</v>
       </c>
       <c r="O27" t="n">
-        <v>0.79</v>
+        <v>0.614</v>
       </c>
       <c r="P27" t="n">
-        <v>0.051</v>
+        <v>0.055</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.04</v>
+        <v>0.041</v>
       </c>
       <c r="R27" t="n">
-        <v>0.225</v>
+        <v>0.233</v>
       </c>
       <c r="S27" t="n">
-        <v>0.879</v>
+        <v>0.829</v>
       </c>
       <c r="T27" t="n">
-        <v>0.003</v>
+        <v>0.008</v>
       </c>
       <c r="U27" t="n">
-        <v>0.053</v>
+        <v>0.065</v>
       </c>
       <c r="V27" t="n">
-        <v>0.059</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="W27" t="n">
-        <v>0.735</v>
+        <v>0.517</v>
       </c>
       <c r="X27" t="n">
-        <v>0.05</v>
+        <v>0.054</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.035</v>
+        <v>0.034</v>
       </c>
       <c r="Z27" t="n">
-        <v>0.223</v>
+        <v>0.227</v>
       </c>
       <c r="AA27" t="n">
-        <v>0.885</v>
+        <v>0.764</v>
       </c>
       <c r="AB27" t="n">
-        <v>0.003</v>
+        <v>0.006</v>
       </c>
       <c r="AC27" t="n">
-        <v>0.048</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="AD27" t="n">
-        <v>0.053</v>
+        <v>0.078</v>
       </c>
       <c r="AE27" t="n">
-        <v>0.79</v>
+        <v>0.616</v>
       </c>
       <c r="AF27" t="n">
         <v>0.149</v>
       </c>
       <c r="AG27" t="n">
-        <v>0.125</v>
+        <v>0.126</v>
       </c>
       <c r="AH27" t="n">
         <v>0.385</v>
       </c>
       <c r="AI27" t="n">
-        <v>-0.013</v>
+        <v>-0.135</v>
       </c>
       <c r="AJ27" t="n">
         <v>3</v>
@@ -3535,100 +3535,100 @@
         <v>1</v>
       </c>
       <c r="D28" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="E28" t="n">
-        <v>0.037</v>
+        <v>0.05</v>
       </c>
       <c r="F28" t="n">
-        <v>0.054</v>
+        <v>0.061</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.283</v>
+        <v>0.388</v>
       </c>
       <c r="H28" t="n">
-        <v>0.067</v>
+        <v>0.06</v>
       </c>
       <c r="I28" t="n">
-        <v>0.055</v>
+        <v>0.048</v>
       </c>
       <c r="J28" t="n">
-        <v>0.259</v>
+        <v>0.243</v>
       </c>
       <c r="K28" t="n">
-        <v>-0.264</v>
+        <v>0.164</v>
       </c>
       <c r="L28" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="M28" t="n">
-        <v>0.038</v>
+        <v>0.049</v>
       </c>
       <c r="N28" t="n">
-        <v>0.056</v>
+        <v>0.061</v>
       </c>
       <c r="O28" t="n">
-        <v>-0.379</v>
+        <v>0.403</v>
       </c>
       <c r="P28" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.061</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.056</v>
+        <v>0.049</v>
       </c>
       <c r="R28" t="n">
-        <v>0.264</v>
+        <v>0.246</v>
       </c>
       <c r="S28" t="n">
-        <v>-0.428</v>
+        <v>0.122</v>
       </c>
       <c r="T28" t="n">
         <v>0.005</v>
       </c>
       <c r="U28" t="n">
+        <v>0.057</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0.07099999999999999</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0.191</v>
+      </c>
+      <c r="X28" t="n">
+        <v>0.079</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>0.281</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>-0.477</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="AC28" t="n">
         <v>0.054</v>
       </c>
-      <c r="V28" t="n">
-        <v>0.068</v>
-      </c>
-      <c r="W28" t="n">
-        <v>-1.047</v>
-      </c>
-      <c r="X28" t="n">
-        <v>0.078</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>0.063</v>
-      </c>
-      <c r="Z28" t="n">
-        <v>0.278</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>-0.43</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>0.003</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>0.037</v>
-      </c>
       <c r="AD28" t="n">
-        <v>0.054</v>
+        <v>0.064</v>
       </c>
       <c r="AE28" t="n">
-        <v>-0.294</v>
+        <v>0.34</v>
       </c>
       <c r="AF28" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.073</v>
       </c>
       <c r="AG28" t="n">
-        <v>0.058</v>
+        <v>0.059</v>
       </c>
       <c r="AH28" t="n">
-        <v>0.263</v>
+        <v>0.27</v>
       </c>
       <c r="AI28" t="n">
-        <v>-0.019</v>
+        <v>-0.191</v>
       </c>
       <c r="AJ28" t="n">
         <v>4</v>
@@ -3647,100 +3647,100 @@
         <v>1</v>
       </c>
       <c r="D29" t="n">
-        <v>0.002</v>
+        <v>0.005</v>
       </c>
       <c r="E29" t="n">
-        <v>0.032</v>
+        <v>0.063</v>
       </c>
       <c r="F29" t="n">
-        <v>0.042</v>
+        <v>0.068</v>
       </c>
       <c r="G29" t="n">
-        <v>0.91</v>
+        <v>0.849</v>
       </c>
       <c r="H29" t="n">
-        <v>0.045</v>
+        <v>0.052</v>
       </c>
       <c r="I29" t="n">
-        <v>0.036</v>
+        <v>0.043</v>
       </c>
       <c r="J29" t="n">
-        <v>0.212</v>
+        <v>0.228</v>
       </c>
       <c r="K29" t="n">
-        <v>0.904</v>
+        <v>0.871</v>
       </c>
       <c r="L29" t="n">
-        <v>0.002</v>
+        <v>0.005</v>
       </c>
       <c r="M29" t="n">
-        <v>0.032</v>
+        <v>0.063</v>
       </c>
       <c r="N29" t="n">
-        <v>0.043</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="O29" t="n">
-        <v>0.905</v>
+        <v>0.847</v>
       </c>
       <c r="P29" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0.044</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0.233</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0.855</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="U29" t="n">
         <v>0.047</v>
       </c>
-      <c r="Q29" t="n">
-        <v>0.039</v>
-      </c>
-      <c r="R29" t="n">
+      <c r="V29" t="n">
+        <v>0.057</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0.894</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="Z29" t="n">
         <v>0.218</v>
       </c>
-      <c r="S29" t="n">
-        <v>0.895</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0.035</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0.044</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0.899</v>
-      </c>
-      <c r="X29" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>0.027</v>
-      </c>
-      <c r="Z29" t="n">
-        <v>0.192</v>
-      </c>
       <c r="AA29" t="n">
-        <v>0.903</v>
+        <v>0.89</v>
       </c>
       <c r="AB29" t="n">
-        <v>0.002</v>
+        <v>0.005</v>
       </c>
       <c r="AC29" t="n">
-        <v>0.032</v>
+        <v>0.063</v>
       </c>
       <c r="AD29" t="n">
-        <v>0.042</v>
+        <v>0.067</v>
       </c>
       <c r="AE29" t="n">
-        <v>0.908</v>
+        <v>0.853</v>
       </c>
       <c r="AF29" t="n">
-        <v>0.15</v>
+        <v>0.151</v>
       </c>
       <c r="AG29" t="n">
-        <v>0.116</v>
+        <v>0.117</v>
       </c>
       <c r="AH29" t="n">
         <v>0.388</v>
       </c>
       <c r="AI29" t="n">
-        <v>-0.034</v>
+        <v>-0.054</v>
       </c>
       <c r="AJ29" t="n">
         <v>4</v>
@@ -3759,64 +3759,64 @@
         <v>1</v>
       </c>
       <c r="D30" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="E30" t="n">
-        <v>0.043</v>
+        <v>0.05</v>
       </c>
       <c r="F30" t="n">
-        <v>0.052</v>
+        <v>0.062</v>
       </c>
       <c r="G30" t="n">
-        <v>0.348</v>
+        <v>-0.017</v>
       </c>
       <c r="H30" t="n">
-        <v>0.064</v>
+        <v>0.06</v>
       </c>
       <c r="I30" t="n">
-        <v>0.052</v>
+        <v>0.05</v>
       </c>
       <c r="J30" t="n">
-        <v>0.253</v>
+        <v>0.243</v>
       </c>
       <c r="K30" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.21</v>
       </c>
       <c r="L30" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="M30" t="n">
-        <v>0.044</v>
+        <v>0.054</v>
       </c>
       <c r="N30" t="n">
-        <v>0.053</v>
+        <v>0.067</v>
       </c>
       <c r="O30" t="n">
-        <v>0.331</v>
+        <v>-0.183</v>
       </c>
       <c r="P30" t="n">
-        <v>0.065</v>
+        <v>0.061</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.053</v>
+        <v>0.051</v>
       </c>
       <c r="R30" t="n">
-        <v>0.255</v>
+        <v>0.244</v>
       </c>
       <c r="S30" t="n">
-        <v>0.052</v>
+        <v>0.187</v>
       </c>
       <c r="T30" t="n">
         <v>0.004</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05</v>
+        <v>0.049</v>
       </c>
       <c r="V30" t="n">
-        <v>0.065</v>
+        <v>0.06</v>
       </c>
       <c r="W30" t="n">
-        <v>-0.029</v>
+        <v>0.034</v>
       </c>
       <c r="X30" t="n">
         <v>0.07000000000000001</v>
@@ -3825,34 +3825,34 @@
         <v>0.056</v>
       </c>
       <c r="Z30" t="n">
-        <v>0.264</v>
+        <v>0.262</v>
       </c>
       <c r="AA30" t="n">
-        <v>-0.204</v>
+        <v>-0.076</v>
       </c>
       <c r="AB30" t="n">
         <v>0.003</v>
       </c>
       <c r="AC30" t="n">
-        <v>0.042</v>
+        <v>0.045</v>
       </c>
       <c r="AD30" t="n">
-        <v>0.052</v>
+        <v>0.056</v>
       </c>
       <c r="AE30" t="n">
-        <v>0.345</v>
+        <v>0.172</v>
       </c>
       <c r="AF30" t="n">
-        <v>0.07099999999999999</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="AG30" t="n">
-        <v>0.057</v>
+        <v>0.056</v>
       </c>
       <c r="AH30" t="n">
-        <v>0.265</v>
+        <v>0.26</v>
       </c>
       <c r="AI30" t="n">
-        <v>-0.097</v>
+        <v>-0.028</v>
       </c>
       <c r="AJ30" t="n">
         <v>5</v>
@@ -3871,100 +3871,100 @@
         <v>1</v>
       </c>
       <c r="D31" t="n">
-        <v>0.01</v>
+        <v>0.013</v>
       </c>
       <c r="E31" t="n">
-        <v>0.09</v>
+        <v>0.108</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1</v>
+        <v>0.115</v>
       </c>
       <c r="G31" t="n">
-        <v>0.496</v>
+        <v>0.36</v>
       </c>
       <c r="H31" t="n">
-        <v>0.063</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I31" t="n">
-        <v>0.054</v>
+        <v>0.064</v>
       </c>
       <c r="J31" t="n">
-        <v>0.25</v>
+        <v>0.265</v>
       </c>
       <c r="K31" t="n">
-        <v>0.806</v>
+        <v>0.721</v>
       </c>
       <c r="L31" t="n">
-        <v>0.01</v>
+        <v>0.013</v>
       </c>
       <c r="M31" t="n">
-        <v>0.09</v>
+        <v>0.108</v>
       </c>
       <c r="N31" t="n">
-        <v>0.101</v>
+        <v>0.115</v>
       </c>
       <c r="O31" t="n">
-        <v>0.492</v>
+        <v>0.362</v>
       </c>
       <c r="P31" t="n">
-        <v>0.06900000000000001</v>
+        <v>0.091</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.057</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="R31" t="n">
-        <v>0.262</v>
+        <v>0.298</v>
       </c>
       <c r="S31" t="n">
-        <v>0.769</v>
+        <v>0.495</v>
       </c>
       <c r="T31" t="n">
-        <v>0.006</v>
+        <v>0.012</v>
       </c>
       <c r="U31" t="n">
-        <v>0.055</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="V31" t="n">
-        <v>0.075</v>
+        <v>0.107</v>
       </c>
       <c r="W31" t="n">
-        <v>0.715</v>
+        <v>0.445</v>
       </c>
       <c r="X31" t="n">
-        <v>0.041</v>
+        <v>0.031</v>
       </c>
       <c r="Y31" t="n">
-        <v>0.027</v>
+        <v>0.022</v>
       </c>
       <c r="Z31" t="n">
-        <v>0.202</v>
+        <v>0.171</v>
       </c>
       <c r="AA31" t="n">
-        <v>0.917</v>
+        <v>0.949</v>
       </c>
       <c r="AB31" t="n">
-        <v>0.01</v>
+        <v>0.013</v>
       </c>
       <c r="AC31" t="n">
-        <v>0.09</v>
+        <v>0.108</v>
       </c>
       <c r="AD31" t="n">
-        <v>0.1</v>
+        <v>0.115</v>
       </c>
       <c r="AE31" t="n">
-        <v>0.496</v>
+        <v>0.361</v>
       </c>
       <c r="AF31" t="n">
-        <v>0.152</v>
+        <v>0.151</v>
       </c>
       <c r="AG31" t="n">
-        <v>0.116</v>
+        <v>0.113</v>
       </c>
       <c r="AH31" t="n">
-        <v>0.389</v>
+        <v>0.387</v>
       </c>
       <c r="AI31" t="n">
-        <v>-0.102</v>
+        <v>-0.198</v>
       </c>
       <c r="AJ31" t="n">
         <v>5</v>
@@ -3983,88 +3983,88 @@
         <v>1</v>
       </c>
       <c r="D32" t="n">
-        <v>0.002</v>
+        <v>0.004</v>
       </c>
       <c r="E32" t="n">
-        <v>0.04</v>
+        <v>0.046</v>
       </c>
       <c r="F32" t="n">
+        <v>0.063</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.063</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.052</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0.064</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0.053</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0.253</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0.053</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0.07199999999999999</v>
+      </c>
+      <c r="W32" t="n">
+        <v>-0.102</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0.07199999999999999</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>0.057</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>0.268</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>-0.222</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="AC32" t="n">
         <v>0.047</v>
       </c>
-      <c r="G32" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0.061</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0.246</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0.141</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0.048</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0.111</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0.062</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0.248</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0.109</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0.003</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="V32" t="n">
-        <v>0.051</v>
-      </c>
-      <c r="W32" t="n">
-        <v>0.022</v>
-      </c>
-      <c r="X32" t="n">
-        <v>0.068</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>0.054</v>
-      </c>
-      <c r="Z32" t="n">
-        <v>0.261</v>
-      </c>
-      <c r="AA32" t="n">
-        <v>-0.074</v>
-      </c>
-      <c r="AB32" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="AC32" t="n">
-        <v>0.038</v>
-      </c>
       <c r="AD32" t="n">
-        <v>0.046</v>
+        <v>0.065</v>
       </c>
       <c r="AE32" t="n">
-        <v>0.198</v>
+        <v>0.11</v>
       </c>
       <c r="AF32" t="n">
         <v>0.068</v>
@@ -4073,10 +4073,10 @@
         <v>0.054</v>
       </c>
       <c r="AH32" t="n">
-        <v>0.259</v>
+        <v>0.261</v>
       </c>
       <c r="AI32" t="n">
-        <v>-0.011</v>
+        <v>-0.059</v>
       </c>
       <c r="AJ32" t="n">
         <v>6</v>
@@ -4095,100 +4095,100 @@
         <v>1</v>
       </c>
       <c r="D33" t="n">
-        <v>0.002</v>
+        <v>0.006</v>
       </c>
       <c r="E33" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.765</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.057</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.237</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.794</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.07099999999999999</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.076</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0.058</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0.046</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0.239</v>
+      </c>
+      <c r="S33" t="n">
+        <v>0.788</v>
+      </c>
+      <c r="T33" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="U33" t="n">
+        <v>0.064</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0.082</v>
+      </c>
+      <c r="W33" t="n">
+        <v>0.721</v>
+      </c>
+      <c r="X33" t="n">
         <v>0.035</v>
       </c>
-      <c r="F33" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="G33" t="n">
-        <v>0.911</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0.044</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0.034</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0.906</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0.003</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0.035</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0.908</v>
-      </c>
-      <c r="P33" t="n">
-        <v>0.045</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>0.035</v>
-      </c>
-      <c r="R33" t="n">
-        <v>0.213</v>
-      </c>
-      <c r="S33" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="T33" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="U33" t="n">
-        <v>0.013</v>
-      </c>
-      <c r="V33" t="n">
-        <v>0.026</v>
-      </c>
-      <c r="W33" t="n">
-        <v>0.975</v>
-      </c>
-      <c r="X33" t="n">
+      <c r="Y33" t="n">
         <v>0.024</v>
       </c>
-      <c r="Y33" t="n">
-        <v>0.014</v>
-      </c>
       <c r="Z33" t="n">
-        <v>0.153</v>
+        <v>0.18</v>
       </c>
       <c r="AA33" t="n">
-        <v>0.97</v>
+        <v>0.92</v>
       </c>
       <c r="AB33" t="n">
-        <v>0.002</v>
+        <v>0.006</v>
       </c>
       <c r="AC33" t="n">
-        <v>0.035</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AD33" t="n">
-        <v>0.05</v>
+        <v>0.075</v>
       </c>
       <c r="AE33" t="n">
-        <v>0.911</v>
+        <v>0.765</v>
       </c>
       <c r="AF33" t="n">
-        <v>0.149</v>
+        <v>0.145</v>
       </c>
       <c r="AG33" t="n">
-        <v>0.11</v>
+        <v>0.111</v>
       </c>
       <c r="AH33" t="n">
-        <v>0.385</v>
+        <v>0.379</v>
       </c>
       <c r="AI33" t="n">
-        <v>-0.044</v>
+        <v>-0.091</v>
       </c>
       <c r="AJ33" t="n">
         <v>6</v>
@@ -4207,88 +4207,88 @@
         <v>1</v>
       </c>
       <c r="D34" t="n">
-        <v>0.004</v>
+        <v>0.003</v>
       </c>
       <c r="E34" t="n">
-        <v>0.049</v>
+        <v>0.046</v>
       </c>
       <c r="F34" t="n">
-        <v>0.065</v>
+        <v>0.057</v>
       </c>
       <c r="G34" t="n">
-        <v>0.025</v>
+        <v>0.405</v>
       </c>
       <c r="H34" t="n">
+        <v>0.063</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.053</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.251</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.059</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="P34" t="n">
         <v>0.064</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0.052</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0.253</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0.106</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0.054</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0.06900000000000001</v>
-      </c>
-      <c r="O34" t="n">
-        <v>-0.08799999999999999</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0.065</v>
       </c>
       <c r="Q34" t="n">
         <v>0.053</v>
       </c>
       <c r="R34" t="n">
-        <v>0.254</v>
+        <v>0.252</v>
       </c>
       <c r="S34" t="n">
-        <v>0.08500000000000001</v>
+        <v>-0.024</v>
       </c>
       <c r="T34" t="n">
-        <v>0.006</v>
+        <v>0.004</v>
       </c>
       <c r="U34" t="n">
-        <v>0.057</v>
+        <v>0.049</v>
       </c>
       <c r="V34" t="n">
-        <v>0.077</v>
+        <v>0.065</v>
       </c>
       <c r="W34" t="n">
-        <v>-0.36</v>
+        <v>0.234</v>
       </c>
       <c r="X34" t="n">
-        <v>0.06</v>
+        <v>0.063</v>
       </c>
       <c r="Y34" t="n">
-        <v>0.047</v>
+        <v>0.051</v>
       </c>
       <c r="Z34" t="n">
-        <v>0.245</v>
+        <v>0.25</v>
       </c>
       <c r="AA34" t="n">
-        <v>0.228</v>
+        <v>0.032</v>
       </c>
       <c r="AB34" t="n">
         <v>0.004</v>
       </c>
       <c r="AC34" t="n">
-        <v>0.05</v>
+        <v>0.048</v>
       </c>
       <c r="AD34" t="n">
-        <v>0.066</v>
+        <v>0.06</v>
       </c>
       <c r="AE34" t="n">
-        <v>0.003</v>
+        <v>0.34</v>
       </c>
       <c r="AF34" t="n">
         <v>0.07000000000000001</v>
@@ -4300,7 +4300,7 @@
         <v>0.263</v>
       </c>
       <c r="AI34" t="n">
-        <v>-0.02</v>
+        <v>-0.094</v>
       </c>
       <c r="AJ34" t="n">
         <v>7</v>
@@ -4322,97 +4322,97 @@
         <v>0.002</v>
       </c>
       <c r="E35" t="n">
-        <v>0.043</v>
+        <v>0.039</v>
       </c>
       <c r="F35" t="n">
-        <v>0.049</v>
+        <v>0.046</v>
       </c>
       <c r="G35" t="n">
-        <v>0.874</v>
+        <v>0.907</v>
       </c>
       <c r="H35" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.212</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.898</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="N35" t="n">
         <v>0.047</v>
       </c>
-      <c r="I35" t="n">
-        <v>0.037</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0.217</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0.889</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0.003</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0.047</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0.053</v>
-      </c>
       <c r="O35" t="n">
-        <v>0.847</v>
+        <v>0.905</v>
       </c>
       <c r="P35" t="n">
-        <v>0.048</v>
+        <v>0.045</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.039</v>
+        <v>0.036</v>
       </c>
       <c r="R35" t="n">
-        <v>0.22</v>
+        <v>0.211</v>
       </c>
       <c r="S35" t="n">
-        <v>0.885</v>
+        <v>0.899</v>
       </c>
       <c r="T35" t="n">
-        <v>0.004</v>
+        <v>0.001</v>
       </c>
       <c r="U35" t="n">
-        <v>0.046</v>
+        <v>0.025</v>
       </c>
       <c r="V35" t="n">
-        <v>0.063</v>
+        <v>0.038</v>
       </c>
       <c r="W35" t="n">
-        <v>0.791</v>
+        <v>0.9379999999999999</v>
       </c>
       <c r="X35" t="n">
         <v>0.032</v>
       </c>
       <c r="Y35" t="n">
-        <v>0.018</v>
+        <v>0.02</v>
       </c>
       <c r="Z35" t="n">
-        <v>0.178</v>
+        <v>0.177</v>
       </c>
       <c r="AA35" t="n">
-        <v>0.948</v>
+        <v>0.949</v>
       </c>
       <c r="AB35" t="n">
         <v>0.002</v>
       </c>
       <c r="AC35" t="n">
-        <v>0.041</v>
+        <v>0.039</v>
       </c>
       <c r="AD35" t="n">
-        <v>0.048</v>
+        <v>0.046</v>
       </c>
       <c r="AE35" t="n">
-        <v>0.879</v>
+        <v>0.906</v>
       </c>
       <c r="AF35" t="n">
         <v>0.146</v>
       </c>
       <c r="AG35" t="n">
-        <v>0.111</v>
+        <v>0.11</v>
       </c>
       <c r="AH35" t="n">
         <v>0.381</v>
       </c>
       <c r="AI35" t="n">
-        <v>-0.011</v>
+        <v>-0.004</v>
       </c>
       <c r="AJ35" t="n">
         <v>7</v>
@@ -4431,88 +4431,88 @@
         <v>1</v>
       </c>
       <c r="D36" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.058</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.268</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.049</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.228</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.059</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0.233</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0.061</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0.049</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0.246</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0.212</v>
+      </c>
+      <c r="T36" t="n">
         <v>0.004</v>
       </c>
-      <c r="E36" t="n">
-        <v>0.053</v>
-      </c>
-      <c r="F36" t="n">
-        <v>0.066</v>
-      </c>
-      <c r="G36" t="n">
-        <v>0.249</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0.062</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0.004</v>
-      </c>
-      <c r="M36" t="n">
+      <c r="U36" t="n">
         <v>0.052</v>
       </c>
-      <c r="N36" t="n">
-        <v>0.067</v>
-      </c>
-      <c r="O36" t="n">
-        <v>0.221</v>
-      </c>
-      <c r="P36" t="n">
-        <v>0.063</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="R36" t="n">
-        <v>0.251</v>
-      </c>
-      <c r="S36" t="n">
-        <v>0.131</v>
-      </c>
-      <c r="T36" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="U36" t="n">
-        <v>0.057</v>
-      </c>
       <c r="V36" t="n">
-        <v>0.07099999999999999</v>
+        <v>0.06</v>
       </c>
       <c r="W36" t="n">
-        <v>0.13</v>
+        <v>0.215</v>
       </c>
       <c r="X36" t="n">
-        <v>0.064</v>
+        <v>0.055</v>
       </c>
       <c r="Y36" t="n">
-        <v>0.051</v>
+        <v>0.044</v>
       </c>
       <c r="Z36" t="n">
-        <v>0.253</v>
+        <v>0.235</v>
       </c>
       <c r="AA36" t="n">
-        <v>0.07199999999999999</v>
+        <v>0.322</v>
       </c>
       <c r="AB36" t="n">
-        <v>0.005</v>
+        <v>0.003</v>
       </c>
       <c r="AC36" t="n">
-        <v>0.055</v>
+        <v>0.044</v>
       </c>
       <c r="AD36" t="n">
-        <v>0.068</v>
+        <v>0.056</v>
       </c>
       <c r="AE36" t="n">
-        <v>0.196</v>
+        <v>0.308</v>
       </c>
       <c r="AF36" t="n">
         <v>0.06900000000000001</v>
@@ -4521,10 +4521,10 @@
         <v>0.055</v>
       </c>
       <c r="AH36" t="n">
-        <v>0.262</v>
+        <v>0.263</v>
       </c>
       <c r="AI36" t="n">
-        <v>-0.005</v>
+        <v>-0.018</v>
       </c>
       <c r="AJ36" t="n">
         <v>8</v>
@@ -4546,97 +4546,97 @@
         <v>0.002</v>
       </c>
       <c r="E37" t="n">
-        <v>0.031</v>
+        <v>0.032</v>
       </c>
       <c r="F37" t="n">
-        <v>0.042</v>
+        <v>0.047</v>
       </c>
       <c r="G37" t="n">
-        <v>0.918</v>
+        <v>0.887</v>
       </c>
       <c r="H37" t="n">
-        <v>0.045</v>
+        <v>0.044</v>
       </c>
       <c r="I37" t="n">
-        <v>0.037</v>
+        <v>0.035</v>
       </c>
       <c r="J37" t="n">
-        <v>0.213</v>
+        <v>0.209</v>
       </c>
       <c r="K37" t="n">
-        <v>0.893</v>
+        <v>0.903</v>
       </c>
       <c r="L37" t="n">
         <v>0.002</v>
       </c>
       <c r="M37" t="n">
-        <v>0.032</v>
+        <v>0.031</v>
       </c>
       <c r="N37" t="n">
-        <v>0.042</v>
+        <v>0.047</v>
       </c>
       <c r="O37" t="n">
-        <v>0.918</v>
+        <v>0.887</v>
       </c>
       <c r="P37" t="n">
-        <v>0.047</v>
+        <v>0.045</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.038</v>
+        <v>0.036</v>
       </c>
       <c r="R37" t="n">
-        <v>0.216</v>
+        <v>0.211</v>
       </c>
       <c r="S37" t="n">
-        <v>0.888</v>
+        <v>0.899</v>
       </c>
       <c r="T37" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="U37" t="n">
-        <v>0.036</v>
+        <v>0.039</v>
       </c>
       <c r="V37" t="n">
-        <v>0.056</v>
+        <v>0.065</v>
       </c>
       <c r="W37" t="n">
-        <v>0.854</v>
+        <v>0.781</v>
       </c>
       <c r="X37" t="n">
-        <v>0.04</v>
+        <v>0.031</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.023</v>
+        <v>0.022</v>
       </c>
       <c r="Z37" t="n">
-        <v>0.197</v>
+        <v>0.176</v>
       </c>
       <c r="AA37" t="n">
-        <v>0.908</v>
+        <v>0.949</v>
       </c>
       <c r="AB37" t="n">
         <v>0.002</v>
       </c>
       <c r="AC37" t="n">
-        <v>0.031</v>
+        <v>0.033</v>
       </c>
       <c r="AD37" t="n">
-        <v>0.042</v>
+        <v>0.047</v>
       </c>
       <c r="AE37" t="n">
-        <v>0.918</v>
+        <v>0.885</v>
       </c>
       <c r="AF37" t="n">
-        <v>0.144</v>
+        <v>0.145</v>
       </c>
       <c r="AG37" t="n">
-        <v>0.111</v>
+        <v>0.112</v>
       </c>
       <c r="AH37" t="n">
-        <v>0.379</v>
+        <v>0.38</v>
       </c>
       <c r="AI37" t="n">
-        <v>-0.031</v>
+        <v>-0.03</v>
       </c>
       <c r="AJ37" t="n">
         <v>8</v>
@@ -4655,40 +4655,40 @@
         <v>1</v>
       </c>
       <c r="D38" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="E38" t="n">
-        <v>0.05</v>
+        <v>0.052</v>
       </c>
       <c r="F38" t="n">
-        <v>0.057</v>
+        <v>0.065</v>
       </c>
       <c r="G38" t="n">
-        <v>0.395</v>
+        <v>0.171</v>
       </c>
       <c r="H38" t="n">
         <v>0.055</v>
       </c>
       <c r="I38" t="n">
-        <v>0.045</v>
+        <v>0.046</v>
       </c>
       <c r="J38" t="n">
         <v>0.235</v>
       </c>
       <c r="K38" t="n">
-        <v>0.343</v>
+        <v>0.309</v>
       </c>
       <c r="L38" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="M38" t="n">
-        <v>0.051</v>
+        <v>0.052</v>
       </c>
       <c r="N38" t="n">
-        <v>0.059</v>
+        <v>0.066</v>
       </c>
       <c r="O38" t="n">
-        <v>0.353</v>
+        <v>0.157</v>
       </c>
       <c r="P38" t="n">
         <v>0.056</v>
@@ -4697,58 +4697,58 @@
         <v>0.046</v>
       </c>
       <c r="R38" t="n">
-        <v>0.236</v>
+        <v>0.235</v>
       </c>
       <c r="S38" t="n">
-        <v>0.324</v>
+        <v>0.288</v>
       </c>
       <c r="T38" t="n">
         <v>0.004</v>
       </c>
       <c r="U38" t="n">
-        <v>0.051</v>
+        <v>0.049</v>
       </c>
       <c r="V38" t="n">
-        <v>0.063</v>
+        <v>0.065</v>
       </c>
       <c r="W38" t="n">
-        <v>0.258</v>
+        <v>0.177</v>
       </c>
       <c r="X38" t="n">
-        <v>0.061</v>
+        <v>0.057</v>
       </c>
       <c r="Y38" t="n">
-        <v>0.047</v>
+        <v>0.044</v>
       </c>
       <c r="Z38" t="n">
-        <v>0.246</v>
+        <v>0.238</v>
       </c>
       <c r="AA38" t="n">
-        <v>0.204</v>
+        <v>0.315</v>
       </c>
       <c r="AB38" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="AC38" t="n">
         <v>0.051</v>
       </c>
       <c r="AD38" t="n">
-        <v>0.058</v>
+        <v>0.064</v>
       </c>
       <c r="AE38" t="n">
-        <v>0.373</v>
+        <v>0.2</v>
       </c>
       <c r="AF38" t="n">
         <v>0.07099999999999999</v>
       </c>
       <c r="AG38" t="n">
-        <v>0.057</v>
+        <v>0.056</v>
       </c>
       <c r="AH38" t="n">
         <v>0.266</v>
       </c>
       <c r="AI38" t="n">
-        <v>-0.07000000000000001</v>
+        <v>-0.062</v>
       </c>
       <c r="AJ38" t="n">
         <v>9</v>
@@ -4770,85 +4770,85 @@
         <v>0.002</v>
       </c>
       <c r="E39" t="n">
-        <v>0.04</v>
+        <v>0.032</v>
       </c>
       <c r="F39" t="n">
-        <v>0.046</v>
+        <v>0.041</v>
       </c>
       <c r="G39" t="n">
-        <v>0.89</v>
+        <v>0.915</v>
       </c>
       <c r="H39" t="n">
-        <v>0.046</v>
+        <v>0.045</v>
       </c>
       <c r="I39" t="n">
-        <v>0.037</v>
+        <v>0.036</v>
       </c>
       <c r="J39" t="n">
-        <v>0.213</v>
+        <v>0.211</v>
       </c>
       <c r="K39" t="n">
-        <v>0.897</v>
+        <v>0.892</v>
       </c>
       <c r="L39" t="n">
         <v>0.002</v>
       </c>
       <c r="M39" t="n">
-        <v>0.04</v>
+        <v>0.032</v>
       </c>
       <c r="N39" t="n">
-        <v>0.045</v>
+        <v>0.041</v>
       </c>
       <c r="O39" t="n">
-        <v>0.893</v>
+        <v>0.915</v>
       </c>
       <c r="P39" t="n">
-        <v>0.048</v>
+        <v>0.046</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.038</v>
+        <v>0.037</v>
       </c>
       <c r="R39" t="n">
-        <v>0.218</v>
+        <v>0.213</v>
       </c>
       <c r="S39" t="n">
-        <v>0.886</v>
+        <v>0.887</v>
       </c>
       <c r="T39" t="n">
-        <v>0.004</v>
+        <v>0.003</v>
       </c>
       <c r="U39" t="n">
-        <v>0.051</v>
+        <v>0.03</v>
       </c>
       <c r="V39" t="n">
-        <v>0.061</v>
+        <v>0.052</v>
       </c>
       <c r="W39" t="n">
-        <v>0.805</v>
+        <v>0.863</v>
       </c>
       <c r="X39" t="n">
-        <v>0.035</v>
+        <v>0.024</v>
       </c>
       <c r="Y39" t="n">
-        <v>0.022</v>
+        <v>0.016</v>
       </c>
       <c r="Z39" t="n">
-        <v>0.186</v>
+        <v>0.152</v>
       </c>
       <c r="AA39" t="n">
-        <v>0.929</v>
+        <v>0.967</v>
       </c>
       <c r="AB39" t="n">
         <v>0.002</v>
       </c>
       <c r="AC39" t="n">
-        <v>0.039</v>
+        <v>0.032</v>
       </c>
       <c r="AD39" t="n">
-        <v>0.046</v>
+        <v>0.041</v>
       </c>
       <c r="AE39" t="n">
-        <v>0.892</v>
+        <v>0.915</v>
       </c>
       <c r="AF39" t="n">
         <v>0.143</v>
@@ -4860,7 +4860,7 @@
         <v>0.378</v>
       </c>
       <c r="AI39" t="n">
-        <v>-0.021</v>
+        <v>-0.073</v>
       </c>
       <c r="AJ39" t="n">
         <v>9</v>
@@ -4879,100 +4879,100 @@
         <v>1</v>
       </c>
       <c r="D40" t="n">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="E40" t="n">
-        <v>0.044</v>
+        <v>0.039</v>
       </c>
       <c r="F40" t="n">
-        <v>0.052</v>
+        <v>0.047</v>
       </c>
       <c r="G40" t="n">
-        <v>0.553</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="H40" t="n">
-        <v>0.054</v>
+        <v>0.055</v>
       </c>
       <c r="I40" t="n">
-        <v>0.045</v>
+        <v>0.046</v>
       </c>
       <c r="J40" t="n">
-        <v>0.232</v>
+        <v>0.234</v>
       </c>
       <c r="K40" t="n">
-        <v>0.45</v>
+        <v>0.411</v>
       </c>
       <c r="L40" t="n">
         <v>0.002</v>
       </c>
       <c r="M40" t="n">
-        <v>0.044</v>
+        <v>0.039</v>
       </c>
       <c r="N40" t="n">
-        <v>0.05</v>
+        <v>0.047</v>
       </c>
       <c r="O40" t="n">
-        <v>0.587</v>
+        <v>0.5620000000000001</v>
       </c>
       <c r="P40" t="n">
-        <v>0.054</v>
+        <v>0.055</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.045</v>
+        <v>0.047</v>
       </c>
       <c r="R40" t="n">
-        <v>0.231</v>
+        <v>0.235</v>
       </c>
       <c r="S40" t="n">
-        <v>0.454</v>
+        <v>0.404</v>
       </c>
       <c r="T40" t="n">
-        <v>0.005</v>
+        <v>0.004</v>
       </c>
       <c r="U40" t="n">
-        <v>0.051</v>
+        <v>0.048</v>
       </c>
       <c r="V40" t="n">
-        <v>0.06900000000000001</v>
+        <v>0.061</v>
       </c>
       <c r="W40" t="n">
-        <v>0.207</v>
+        <v>0.264</v>
       </c>
       <c r="X40" t="n">
-        <v>0.065</v>
+        <v>0.062</v>
       </c>
       <c r="Y40" t="n">
-        <v>0.051</v>
+        <v>0.049</v>
       </c>
       <c r="Z40" t="n">
-        <v>0.255</v>
+        <v>0.248</v>
       </c>
       <c r="AA40" t="n">
-        <v>0.211</v>
+        <v>0.239</v>
       </c>
       <c r="AB40" t="n">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="AC40" t="n">
-        <v>0.044</v>
+        <v>0.039</v>
       </c>
       <c r="AD40" t="n">
-        <v>0.052</v>
+        <v>0.047</v>
       </c>
       <c r="AE40" t="n">
-        <v>0.555</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF40" t="n">
         <v>0.074</v>
       </c>
       <c r="AG40" t="n">
-        <v>0.059</v>
+        <v>0.058</v>
       </c>
       <c r="AH40" t="n">
-        <v>0.272</v>
+        <v>0.271</v>
       </c>
       <c r="AI40" t="n">
-        <v>-0.024</v>
+        <v>-0.026</v>
       </c>
       <c r="AJ40" t="n">
         <v>10</v>
@@ -4991,100 +4991,100 @@
         <v>1</v>
       </c>
       <c r="D41" t="n">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="E41" t="n">
-        <v>0.042</v>
+        <v>0.034</v>
       </c>
       <c r="F41" t="n">
-        <v>0.051</v>
+        <v>0.041</v>
       </c>
       <c r="G41" t="n">
-        <v>0.889</v>
+        <v>0.931</v>
       </c>
       <c r="H41" t="n">
-        <v>0.045</v>
+        <v>0.044</v>
       </c>
       <c r="I41" t="n">
         <v>0.036</v>
       </c>
       <c r="J41" t="n">
-        <v>0.213</v>
+        <v>0.211</v>
       </c>
       <c r="K41" t="n">
-        <v>0.904</v>
+        <v>0.914</v>
       </c>
       <c r="L41" t="n">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="M41" t="n">
-        <v>0.043</v>
+        <v>0.034</v>
       </c>
       <c r="N41" t="n">
-        <v>0.053</v>
+        <v>0.042</v>
       </c>
       <c r="O41" t="n">
-        <v>0.882</v>
+        <v>0.928</v>
       </c>
       <c r="P41" t="n">
-        <v>0.047</v>
+        <v>0.045</v>
       </c>
       <c r="Q41" t="n">
         <v>0.037</v>
       </c>
       <c r="R41" t="n">
-        <v>0.216</v>
+        <v>0.212</v>
       </c>
       <c r="S41" t="n">
-        <v>0.899</v>
+        <v>0.911</v>
       </c>
       <c r="T41" t="n">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="U41" t="n">
-        <v>0.04</v>
+        <v>0.035</v>
       </c>
       <c r="V41" t="n">
-        <v>0.057</v>
+        <v>0.044</v>
       </c>
       <c r="W41" t="n">
-        <v>0.862</v>
+        <v>0.924</v>
       </c>
       <c r="X41" t="n">
-        <v>0.036</v>
+        <v>0.034</v>
       </c>
       <c r="Y41" t="n">
-        <v>0.022</v>
+        <v>0.023</v>
       </c>
       <c r="Z41" t="n">
-        <v>0.188</v>
+        <v>0.185</v>
       </c>
       <c r="AA41" t="n">
-        <v>0.9360000000000001</v>
+        <v>0.947</v>
       </c>
       <c r="AB41" t="n">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="AC41" t="n">
-        <v>0.043</v>
+        <v>0.034</v>
       </c>
       <c r="AD41" t="n">
-        <v>0.052</v>
+        <v>0.042</v>
       </c>
       <c r="AE41" t="n">
-        <v>0.885</v>
+        <v>0.928</v>
       </c>
       <c r="AF41" t="n">
-        <v>0.157</v>
+        <v>0.155</v>
       </c>
       <c r="AG41" t="n">
-        <v>0.119</v>
+        <v>0.115</v>
       </c>
       <c r="AH41" t="n">
-        <v>0.395</v>
+        <v>0.393</v>
       </c>
       <c r="AI41" t="n">
-        <v>-0.098</v>
+        <v>-0.035</v>
       </c>
       <c r="AJ41" t="n">
         <v>10</v>
@@ -5106,94 +5106,94 @@
         <v>0.003</v>
       </c>
       <c r="E42" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.054</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.573</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.054</v>
+      </c>
+      <c r="I42" t="n">
         <v>0.046</v>
       </c>
-      <c r="F42" t="n">
-        <v>0.057</v>
-      </c>
-      <c r="G42" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0.056</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0.047</v>
-      </c>
       <c r="J42" t="n">
-        <v>0.236</v>
+        <v>0.232</v>
       </c>
       <c r="K42" t="n">
-        <v>0.376</v>
+        <v>0.433</v>
       </c>
       <c r="L42" t="n">
         <v>0.003</v>
       </c>
       <c r="M42" t="n">
+        <v>0.047</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.053</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0.591</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0.054</v>
+      </c>
+      <c r="Q42" t="n">
         <v>0.046</v>
       </c>
-      <c r="N42" t="n">
-        <v>0.058</v>
-      </c>
-      <c r="O42" t="n">
-        <v>0.135</v>
-      </c>
-      <c r="P42" t="n">
-        <v>0.056</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>0.047</v>
-      </c>
       <c r="R42" t="n">
-        <v>0.236</v>
+        <v>0.232</v>
       </c>
       <c r="S42" t="n">
-        <v>0.371</v>
+        <v>0.436</v>
       </c>
       <c r="T42" t="n">
         <v>0.004</v>
       </c>
       <c r="U42" t="n">
-        <v>0.047</v>
+        <v>0.051</v>
       </c>
       <c r="V42" t="n">
-        <v>0.061</v>
+        <v>0.066</v>
       </c>
       <c r="W42" t="n">
-        <v>0.058</v>
+        <v>0.359</v>
       </c>
       <c r="X42" t="n">
-        <v>0.057</v>
+        <v>0.056</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.046</v>
+        <v>0.045</v>
       </c>
       <c r="Z42" t="n">
-        <v>0.238</v>
+        <v>0.236</v>
       </c>
       <c r="AA42" t="n">
-        <v>0.353</v>
+        <v>0.391</v>
       </c>
       <c r="AB42" t="n">
         <v>0.003</v>
       </c>
       <c r="AC42" t="n">
-        <v>0.045</v>
+        <v>0.047</v>
       </c>
       <c r="AD42" t="n">
-        <v>0.056</v>
+        <v>0.053</v>
       </c>
       <c r="AE42" t="n">
-        <v>0.196</v>
+        <v>0.587</v>
       </c>
       <c r="AF42" t="n">
-        <v>0.07199999999999999</v>
+        <v>0.073</v>
       </c>
       <c r="AG42" t="n">
         <v>0.057</v>
       </c>
       <c r="AH42" t="n">
-        <v>0.267</v>
+        <v>0.269</v>
       </c>
       <c r="AI42" t="n">
         <v>-0.005</v>
@@ -5215,100 +5215,100 @@
         <v>1</v>
       </c>
       <c r="D43" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.028</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.039</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.9320000000000001</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.044</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.208</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.912</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.028</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.039</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0.9320000000000001</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0.044</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0.909</v>
+      </c>
+      <c r="T43" t="n">
         <v>0.003</v>
       </c>
-      <c r="E43" t="n">
-        <v>0.052</v>
-      </c>
-      <c r="F43" t="n">
-        <v>0.057</v>
-      </c>
-      <c r="G43" t="n">
-        <v>0.878</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0.048</v>
-      </c>
-      <c r="I43" t="n">
+      <c r="U43" t="n">
+        <v>0.033</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0.059</v>
+      </c>
+      <c r="W43" t="n">
+        <v>0.846</v>
+      </c>
+      <c r="X43" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>0.975</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>0.028</v>
+      </c>
+      <c r="AD43" t="n">
         <v>0.039</v>
       </c>
-      <c r="J43" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0.897</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0.003</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0.052</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0.058</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0.875</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0.049</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="R43" t="n">
-        <v>0.221</v>
-      </c>
-      <c r="S43" t="n">
-        <v>0.893</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="U43" t="n">
-        <v>0.031</v>
-      </c>
-      <c r="V43" t="n">
-        <v>0.048</v>
-      </c>
-      <c r="W43" t="n">
-        <v>0.912</v>
-      </c>
-      <c r="X43" t="n">
-        <v>0.033</v>
-      </c>
-      <c r="Y43" t="n">
-        <v>0.021</v>
-      </c>
-      <c r="Z43" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="AA43" t="n">
-        <v>0.953</v>
-      </c>
-      <c r="AB43" t="n">
-        <v>0.003</v>
-      </c>
-      <c r="AC43" t="n">
-        <v>0.052</v>
-      </c>
-      <c r="AD43" t="n">
-        <v>0.057</v>
-      </c>
       <c r="AE43" t="n">
-        <v>0.877</v>
+        <v>0.9320000000000001</v>
       </c>
       <c r="AF43" t="n">
-        <v>0.154</v>
+        <v>0.153</v>
       </c>
       <c r="AG43" t="n">
-        <v>0.116</v>
+        <v>0.115</v>
       </c>
       <c r="AH43" t="n">
-        <v>0.393</v>
+        <v>0.39</v>
       </c>
       <c r="AI43" t="n">
-        <v>-0.052</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="AJ43" t="n">
         <v>11</v>
@@ -5330,25 +5330,25 @@
         <v>0.003</v>
       </c>
       <c r="E44" t="n">
-        <v>0.049</v>
+        <v>0.05</v>
       </c>
       <c r="F44" t="n">
+        <v>0.057</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.443</v>
+      </c>
+      <c r="H44" t="n">
         <v>0.055</v>
       </c>
-      <c r="G44" t="n">
-        <v>0.471</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0.057</v>
-      </c>
       <c r="I44" t="n">
-        <v>0.049</v>
+        <v>0.046</v>
       </c>
       <c r="J44" t="n">
-        <v>0.24</v>
+        <v>0.233</v>
       </c>
       <c r="K44" t="n">
-        <v>0.364</v>
+        <v>0.395</v>
       </c>
       <c r="L44" t="n">
         <v>0.003</v>
@@ -5360,55 +5360,55 @@
         <v>0.056</v>
       </c>
       <c r="O44" t="n">
-        <v>0.455</v>
+        <v>0.451</v>
       </c>
       <c r="P44" t="n">
-        <v>0.058</v>
+        <v>0.055</v>
       </c>
       <c r="Q44" t="n">
+        <v>0.046</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0.233</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0.392</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="U44" t="n">
         <v>0.049</v>
       </c>
-      <c r="R44" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="S44" t="n">
-        <v>0.354</v>
-      </c>
-      <c r="T44" t="n">
-        <v>0.004</v>
-      </c>
-      <c r="U44" t="n">
-        <v>0.048</v>
-      </c>
       <c r="V44" t="n">
-        <v>0.063</v>
+        <v>0.059</v>
       </c>
       <c r="W44" t="n">
-        <v>0.311</v>
+        <v>0.4</v>
       </c>
       <c r="X44" t="n">
-        <v>0.056</v>
+        <v>0.05</v>
       </c>
       <c r="Y44" t="n">
-        <v>0.043</v>
+        <v>0.04</v>
       </c>
       <c r="Z44" t="n">
-        <v>0.236</v>
+        <v>0.223</v>
       </c>
       <c r="AA44" t="n">
-        <v>0.407</v>
+        <v>0.504</v>
       </c>
       <c r="AB44" t="n">
         <v>0.003</v>
       </c>
       <c r="AC44" t="n">
-        <v>0.049</v>
+        <v>0.05</v>
       </c>
       <c r="AD44" t="n">
         <v>0.056</v>
       </c>
       <c r="AE44" t="n">
-        <v>0.461</v>
+        <v>0.451</v>
       </c>
       <c r="AF44" t="n">
         <v>0.073</v>
@@ -5420,7 +5420,7 @@
         <v>0.27</v>
       </c>
       <c r="AI44" t="n">
-        <v>-0.007</v>
+        <v>-0.045</v>
       </c>
       <c r="AJ44" t="n">
         <v>12</v>
@@ -5439,100 +5439,100 @@
         <v>1</v>
       </c>
       <c r="D45" t="n">
-        <v>0.002</v>
+        <v>0.005</v>
       </c>
       <c r="E45" t="n">
-        <v>0.037</v>
+        <v>0.063</v>
       </c>
       <c r="F45" t="n">
-        <v>0.047</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="G45" t="n">
-        <v>0.911</v>
+        <v>0.743</v>
       </c>
       <c r="H45" t="n">
-        <v>0.044</v>
+        <v>0.053</v>
       </c>
       <c r="I45" t="n">
-        <v>0.035</v>
+        <v>0.041</v>
       </c>
       <c r="J45" t="n">
-        <v>0.209</v>
+        <v>0.23</v>
       </c>
       <c r="K45" t="n">
-        <v>0.915</v>
+        <v>0.869</v>
       </c>
       <c r="L45" t="n">
-        <v>0.002</v>
+        <v>0.005</v>
       </c>
       <c r="M45" t="n">
-        <v>0.037</v>
+        <v>0.063</v>
       </c>
       <c r="N45" t="n">
-        <v>0.047</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="O45" t="n">
-        <v>0.911</v>
+        <v>0.741</v>
       </c>
       <c r="P45" t="n">
-        <v>0.044</v>
+        <v>0.053</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.036</v>
+        <v>0.042</v>
       </c>
       <c r="R45" t="n">
-        <v>0.21</v>
+        <v>0.23</v>
       </c>
       <c r="S45" t="n">
-        <v>0.913</v>
+        <v>0.868</v>
       </c>
       <c r="T45" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="U45" t="n">
+        <v>0.08799999999999999</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0.116</v>
+      </c>
+      <c r="W45" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="X45" t="n">
+        <v>0.031</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>0.953</v>
+      </c>
+      <c r="AB45" t="n">
         <v>0.005</v>
       </c>
-      <c r="U45" t="n">
-        <v>0.048</v>
-      </c>
-      <c r="V45" t="n">
-        <v>0.06900000000000001</v>
-      </c>
-      <c r="W45" t="n">
-        <v>0.804</v>
-      </c>
-      <c r="X45" t="n">
-        <v>0.027</v>
-      </c>
-      <c r="Y45" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="Z45" t="n">
-        <v>0.164</v>
-      </c>
-      <c r="AA45" t="n">
-        <v>0.968</v>
-      </c>
-      <c r="AB45" t="n">
-        <v>0.002</v>
-      </c>
       <c r="AC45" t="n">
-        <v>0.036</v>
+        <v>0.063</v>
       </c>
       <c r="AD45" t="n">
-        <v>0.046</v>
+        <v>0.068</v>
       </c>
       <c r="AE45" t="n">
-        <v>0.913</v>
+        <v>0.749</v>
       </c>
       <c r="AF45" t="n">
-        <v>0.155</v>
+        <v>0.153</v>
       </c>
       <c r="AG45" t="n">
-        <v>0.117</v>
+        <v>0.114</v>
       </c>
       <c r="AH45" t="n">
-        <v>0.394</v>
+        <v>0.391</v>
       </c>
       <c r="AI45" t="n">
-        <v>-0.07199999999999999</v>
+        <v>-0.056</v>
       </c>
       <c r="AJ45" t="n">
         <v>12</v>
@@ -5551,100 +5551,100 @@
         <v>1</v>
       </c>
       <c r="D46" t="n">
-        <v>0.004</v>
+        <v>0.003</v>
       </c>
       <c r="E46" t="n">
-        <v>0.052</v>
+        <v>0.048</v>
       </c>
       <c r="F46" t="n">
-        <v>0.06</v>
+        <v>0.058</v>
       </c>
       <c r="G46" t="n">
-        <v>0.433</v>
+        <v>0.449</v>
       </c>
       <c r="H46" t="n">
-        <v>0.059</v>
+        <v>0.057</v>
       </c>
       <c r="I46" t="n">
-        <v>0.049</v>
+        <v>0.048</v>
       </c>
       <c r="J46" t="n">
-        <v>0.243</v>
+        <v>0.239</v>
       </c>
       <c r="K46" t="n">
-        <v>0.392</v>
+        <v>0.364</v>
       </c>
       <c r="L46" t="n">
         <v>0.004</v>
       </c>
       <c r="M46" t="n">
-        <v>0.051</v>
+        <v>0.05</v>
       </c>
       <c r="N46" t="n">
-        <v>0.059</v>
+        <v>0.062</v>
       </c>
       <c r="O46" t="n">
-        <v>0.453</v>
+        <v>0.388</v>
       </c>
       <c r="P46" t="n">
-        <v>0.059</v>
+        <v>0.057</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.049</v>
+        <v>0.047</v>
       </c>
       <c r="R46" t="n">
-        <v>0.243</v>
+        <v>0.239</v>
       </c>
       <c r="S46" t="n">
-        <v>0.392</v>
+        <v>0.362</v>
       </c>
       <c r="T46" t="n">
-        <v>0.004</v>
+        <v>0.003</v>
       </c>
       <c r="U46" t="n">
-        <v>0.054</v>
+        <v>0.042</v>
       </c>
       <c r="V46" t="n">
-        <v>0.067</v>
+        <v>0.056</v>
       </c>
       <c r="W46" t="n">
-        <v>0.31</v>
+        <v>0.501</v>
       </c>
       <c r="X46" t="n">
-        <v>0.061</v>
+        <v>0.052</v>
       </c>
       <c r="Y46" t="n">
-        <v>0.047</v>
+        <v>0.042</v>
       </c>
       <c r="Z46" t="n">
-        <v>0.247</v>
+        <v>0.229</v>
       </c>
       <c r="AA46" t="n">
-        <v>0.346</v>
+        <v>0.459</v>
       </c>
       <c r="AB46" t="n">
         <v>0.004</v>
       </c>
       <c r="AC46" t="n">
-        <v>0.051</v>
+        <v>0.049</v>
       </c>
       <c r="AD46" t="n">
         <v>0.059</v>
       </c>
       <c r="AE46" t="n">
-        <v>0.45</v>
+        <v>0.432</v>
       </c>
       <c r="AF46" t="n">
         <v>0.078</v>
       </c>
       <c r="AG46" t="n">
-        <v>0.061</v>
+        <v>0.062</v>
       </c>
       <c r="AH46" t="n">
-        <v>0.279</v>
+        <v>0.278</v>
       </c>
       <c r="AI46" t="n">
-        <v>-0.006</v>
+        <v>-0.097</v>
       </c>
       <c r="AJ46" t="n">
         <v>13</v>
@@ -5663,40 +5663,40 @@
         <v>1</v>
       </c>
       <c r="D47" t="n">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
       <c r="E47" t="n">
-        <v>0.033</v>
+        <v>0.043</v>
       </c>
       <c r="F47" t="n">
-        <v>0.043</v>
+        <v>0.051</v>
       </c>
       <c r="G47" t="n">
-        <v>0.917</v>
+        <v>0.905</v>
       </c>
       <c r="H47" t="n">
         <v>0.044</v>
       </c>
       <c r="I47" t="n">
-        <v>0.036</v>
+        <v>0.035</v>
       </c>
       <c r="J47" t="n">
-        <v>0.209</v>
+        <v>0.208</v>
       </c>
       <c r="K47" t="n">
-        <v>0.914</v>
+        <v>0.91</v>
       </c>
       <c r="L47" t="n">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
       <c r="M47" t="n">
-        <v>0.033</v>
+        <v>0.043</v>
       </c>
       <c r="N47" t="n">
-        <v>0.042</v>
+        <v>0.05</v>
       </c>
       <c r="O47" t="n">
-        <v>0.922</v>
+        <v>0.906</v>
       </c>
       <c r="P47" t="n">
         <v>0.044</v>
@@ -5708,55 +5708,55 @@
         <v>0.209</v>
       </c>
       <c r="S47" t="n">
-        <v>0.913</v>
+        <v>0.91</v>
       </c>
       <c r="T47" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="U47" t="n">
-        <v>0.019</v>
+        <v>0.029</v>
       </c>
       <c r="V47" t="n">
-        <v>0.028</v>
+        <v>0.043</v>
       </c>
       <c r="W47" t="n">
-        <v>0.964</v>
+        <v>0.9320000000000001</v>
       </c>
       <c r="X47" t="n">
-        <v>0.036</v>
+        <v>0.023</v>
       </c>
       <c r="Y47" t="n">
-        <v>0.025</v>
+        <v>0.016</v>
       </c>
       <c r="Z47" t="n">
-        <v>0.19</v>
+        <v>0.151</v>
       </c>
       <c r="AA47" t="n">
-        <v>0.9370000000000001</v>
+        <v>0.976</v>
       </c>
       <c r="AB47" t="n">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
       <c r="AC47" t="n">
-        <v>0.033</v>
+        <v>0.043</v>
       </c>
       <c r="AD47" t="n">
-        <v>0.042</v>
+        <v>0.05</v>
       </c>
       <c r="AE47" t="n">
-        <v>0.919</v>
+        <v>0.906</v>
       </c>
       <c r="AF47" t="n">
-        <v>0.153</v>
+        <v>0.155</v>
       </c>
       <c r="AG47" t="n">
-        <v>0.115</v>
+        <v>0.117</v>
       </c>
       <c r="AH47" t="n">
-        <v>0.39</v>
+        <v>0.394</v>
       </c>
       <c r="AI47" t="n">
-        <v>-0.015</v>
+        <v>-0.12</v>
       </c>
       <c r="AJ47" t="n">
         <v>13</v>
@@ -5775,16 +5775,16 @@
         <v>1</v>
       </c>
       <c r="D48" t="n">
-        <v>0.002</v>
+        <v>0.004</v>
       </c>
       <c r="E48" t="n">
-        <v>0.041</v>
+        <v>0.055</v>
       </c>
       <c r="F48" t="n">
-        <v>0.049</v>
+        <v>0.066</v>
       </c>
       <c r="G48" t="n">
-        <v>0.573</v>
+        <v>0.356</v>
       </c>
       <c r="H48" t="n">
         <v>0.056</v>
@@ -5793,34 +5793,34 @@
         <v>0.047</v>
       </c>
       <c r="J48" t="n">
-        <v>0.236</v>
+        <v>0.237</v>
       </c>
       <c r="K48" t="n">
-        <v>0.467</v>
+        <v>0.455</v>
       </c>
       <c r="L48" t="n">
-        <v>0.002</v>
+        <v>0.005</v>
       </c>
       <c r="M48" t="n">
-        <v>0.042</v>
+        <v>0.056</v>
       </c>
       <c r="N48" t="n">
-        <v>0.05</v>
+        <v>0.068</v>
       </c>
       <c r="O48" t="n">
-        <v>0.5679999999999999</v>
+        <v>0.319</v>
       </c>
       <c r="P48" t="n">
         <v>0.056</v>
       </c>
       <c r="Q48" t="n">
-        <v>0.048</v>
+        <v>0.047</v>
       </c>
       <c r="R48" t="n">
         <v>0.237</v>
       </c>
       <c r="S48" t="n">
-        <v>0.461</v>
+        <v>0.453</v>
       </c>
       <c r="T48" t="n">
         <v>0.004</v>
@@ -5829,34 +5829,34 @@
         <v>0.047</v>
       </c>
       <c r="V48" t="n">
-        <v>0.059</v>
+        <v>0.062</v>
       </c>
       <c r="W48" t="n">
-        <v>0.382</v>
+        <v>0.437</v>
       </c>
       <c r="X48" t="n">
-        <v>0.057</v>
+        <v>0.051</v>
       </c>
       <c r="Y48" t="n">
-        <v>0.046</v>
+        <v>0.041</v>
       </c>
       <c r="Z48" t="n">
-        <v>0.238</v>
+        <v>0.225</v>
       </c>
       <c r="AA48" t="n">
-        <v>0.443</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="AB48" t="n">
-        <v>0.002</v>
+        <v>0.005</v>
       </c>
       <c r="AC48" t="n">
-        <v>0.042</v>
+        <v>0.056</v>
       </c>
       <c r="AD48" t="n">
-        <v>0.05</v>
+        <v>0.068</v>
       </c>
       <c r="AE48" t="n">
-        <v>0.5669999999999999</v>
+        <v>0.324</v>
       </c>
       <c r="AF48" t="n">
         <v>0.078</v>
@@ -5868,7 +5868,7 @@
         <v>0.279</v>
       </c>
       <c r="AI48" t="n">
-        <v>-0.027</v>
+        <v>-0.019</v>
       </c>
       <c r="AJ48" t="n">
         <v>14</v>
@@ -5890,97 +5890,97 @@
         <v>0.002</v>
       </c>
       <c r="E49" t="n">
-        <v>0.036</v>
+        <v>0.034</v>
       </c>
       <c r="F49" t="n">
-        <v>0.05</v>
+        <v>0.049</v>
       </c>
       <c r="G49" t="n">
-        <v>0.857</v>
+        <v>0.881</v>
       </c>
       <c r="H49" t="n">
-        <v>0.045</v>
+        <v>0.044</v>
       </c>
       <c r="I49" t="n">
         <v>0.036</v>
       </c>
       <c r="J49" t="n">
-        <v>0.211</v>
+        <v>0.21</v>
       </c>
       <c r="K49" t="n">
-        <v>0.911</v>
+        <v>0.913</v>
       </c>
       <c r="L49" t="n">
         <v>0.002</v>
       </c>
       <c r="M49" t="n">
-        <v>0.035</v>
+        <v>0.034</v>
       </c>
       <c r="N49" t="n">
-        <v>0.048</v>
+        <v>0.047</v>
       </c>
       <c r="O49" t="n">
-        <v>0.864</v>
+        <v>0.889</v>
       </c>
       <c r="P49" t="n">
-        <v>0.045</v>
+        <v>0.044</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.037</v>
+        <v>0.036</v>
       </c>
       <c r="R49" t="n">
-        <v>0.212</v>
+        <v>0.209</v>
       </c>
       <c r="S49" t="n">
-        <v>0.911</v>
+        <v>0.914</v>
       </c>
       <c r="T49" t="n">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="U49" t="n">
-        <v>0.037</v>
+        <v>0.026</v>
       </c>
       <c r="V49" t="n">
-        <v>0.053</v>
+        <v>0.042</v>
       </c>
       <c r="W49" t="n">
-        <v>0.836</v>
+        <v>0.912</v>
       </c>
       <c r="X49" t="n">
-        <v>0.037</v>
+        <v>0.036</v>
       </c>
       <c r="Y49" t="n">
-        <v>0.025</v>
+        <v>0.024</v>
       </c>
       <c r="Z49" t="n">
-        <v>0.192</v>
+        <v>0.189</v>
       </c>
       <c r="AA49" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.9409999999999999</v>
       </c>
       <c r="AB49" t="n">
         <v>0.002</v>
       </c>
       <c r="AC49" t="n">
-        <v>0.035</v>
+        <v>0.034</v>
       </c>
       <c r="AD49" t="n">
-        <v>0.049</v>
+        <v>0.048</v>
       </c>
       <c r="AE49" t="n">
-        <v>0.861</v>
+        <v>0.884</v>
       </c>
       <c r="AF49" t="n">
-        <v>0.155</v>
+        <v>0.152</v>
       </c>
       <c r="AG49" t="n">
-        <v>0.116</v>
+        <v>0.115</v>
       </c>
       <c r="AH49" t="n">
-        <v>0.393</v>
+        <v>0.39</v>
       </c>
       <c r="AI49" t="n">
-        <v>-0.045</v>
+        <v>-0.011</v>
       </c>
       <c r="AJ49" t="n">
         <v>14</v>
